--- a/cohesionAndConflict_odkx/app/config/tables/household_census/forms/household_census/household_census.xlsx
+++ b/cohesionAndConflict_odkx/app/config/tables/household_census/forms/household_census/household_census.xlsx
@@ -4,17 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="500" yWindow="0" windowWidth="25600" windowHeight="16060" activeTab="5"/>
+    <workbookView xWindow="2020" yWindow="620" windowWidth="25600" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
     <sheet name="choices" sheetId="3" r:id="rId2"/>
     <sheet name="settings" sheetId="4" r:id="rId3"/>
     <sheet name="queries" sheetId="6" r:id="rId4"/>
-    <sheet name="id" sheetId="11" r:id="rId5"/>
-    <sheet name="members" sheetId="7" r:id="rId6"/>
-    <sheet name="calculates" sheetId="10" r:id="rId7"/>
-    <sheet name="model" sheetId="13" r:id="rId8"/>
+    <sheet name="calculates" sheetId="10" r:id="rId5"/>
+    <sheet name="model" sheetId="13" r:id="rId6"/>
+    <sheet name="id" sheetId="11" r:id="rId7"/>
+    <sheet name="members" sheetId="7" r:id="rId8"/>
+    <sheet name="asset_wealth" sheetId="14" r:id="rId9"/>
+    <sheet name="income" sheetId="15" r:id="rId10"/>
+    <sheet name="food_security" sheetId="16" r:id="rId11"/>
+    <sheet name="crops_fishing" sheetId="17" r:id="rId12"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
@@ -26,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="101">
   <si>
     <t>type</t>
   </si>
@@ -272,6 +276,63 @@
   </si>
   <si>
     <t>household_member</t>
+  </si>
+  <si>
+    <t>custom_member_choices</t>
+  </si>
+  <si>
+    <t>tokatoka</t>
+  </si>
+  <si>
+    <t>Tokatoka</t>
+  </si>
+  <si>
+    <t>mataqali</t>
+  </si>
+  <si>
+    <t>Mataqali</t>
+  </si>
+  <si>
+    <t>yavusa</t>
+  </si>
+  <si>
+    <t>Yavusa</t>
+  </si>
+  <si>
+    <t>select_one_with_other</t>
+  </si>
+  <si>
+    <t>customary_membership</t>
+  </si>
+  <si>
+    <t>What is the houeshold's customary membership?</t>
+  </si>
+  <si>
+    <t>asset_wealth</t>
+  </si>
+  <si>
+    <t>Household Asset Inventory/Wealth</t>
+  </si>
+  <si>
+    <t>income</t>
+  </si>
+  <si>
+    <t>Income of Head and Spouse</t>
+  </si>
+  <si>
+    <t>food_security</t>
+  </si>
+  <si>
+    <t>Food Security</t>
+  </si>
+  <si>
+    <t>crops_fishing</t>
+  </si>
+  <si>
+    <t>Crops under Cultivation/Fishing</t>
+  </si>
+  <si>
+    <t>Customary membership of household</t>
   </si>
 </sst>
 </file>
@@ -429,7 +490,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="141">
+  <cellStyleXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -571,8 +632,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -669,8 +736,11 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="141">
+  <cellStyles count="147">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -740,6 +810,9 @@
     <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -809,6 +882,9 @@
     <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
     <cellStyle name="Note" xfId="68" builtinId="10"/>
@@ -1115,7 +1191,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="XFB4" sqref="XFB4"/>
     </sheetView>
   </sheetViews>
@@ -1238,12 +1314,141 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:12" s="8" customFormat="1" ht="27" customHeight="1">
+      <c r="A1" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L1" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:12" s="8" customFormat="1" ht="27" customHeight="1">
+      <c r="A1" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L1" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:C16"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -1251,8 +1456,8 @@
     <col min="1" max="1" width="17.5" style="13" customWidth="1"/>
     <col min="2" max="2" width="18.1640625" style="13" customWidth="1"/>
     <col min="3" max="3" width="54.1640625" style="13" customWidth="1"/>
-    <col min="4" max="4" width="29.83203125" style="13" customWidth="1"/>
-    <col min="5" max="16384" width="11.5" style="13"/>
+    <col min="4" max="4" width="29.83203125" style="7" customWidth="1"/>
+    <col min="5" max="16384" width="11.5" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="12.75" customHeight="1">
@@ -1266,7 +1471,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="16" customFormat="1" ht="12.75" customHeight="1">
+    <row r="2" spans="1:3" ht="12.75" customHeight="1">
       <c r="A2" s="18" t="s">
         <v>5</v>
       </c>
@@ -1277,7 +1482,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="16" customFormat="1" ht="12.75" customHeight="1">
+    <row r="3" spans="1:3" ht="12.75" customHeight="1">
       <c r="A3" s="18" t="s">
         <v>5</v>
       </c>
@@ -1288,7 +1493,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="15" customFormat="1" ht="12.75" customHeight="1">
+    <row r="5" spans="1:3" ht="12.75" customHeight="1">
       <c r="A5" s="15" t="s">
         <v>51</v>
       </c>
@@ -1299,7 +1504,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="15" customFormat="1" ht="12.75" customHeight="1">
+    <row r="6" spans="1:3" ht="12.75" customHeight="1">
       <c r="A6" s="15" t="s">
         <v>51</v>
       </c>
@@ -1310,7 +1515,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="15" customFormat="1" ht="12.75" customHeight="1">
+    <row r="7" spans="1:3" ht="12.75" customHeight="1">
       <c r="A7" s="15" t="s">
         <v>51</v>
       </c>
@@ -1321,7 +1526,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="15" customFormat="1" ht="12.75" customHeight="1">
+    <row r="8" spans="1:3" ht="12.75" customHeight="1">
       <c r="A8" s="15" t="s">
         <v>51</v>
       </c>
@@ -1332,12 +1537,54 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="16" customFormat="1" ht="12.75" customHeight="1"/>
-    <row r="11" spans="1:3" s="16" customFormat="1" ht="12.75" customHeight="1"/>
-    <row r="12" spans="1:3" s="16" customFormat="1" ht="12.75" customHeight="1"/>
-    <row r="13" spans="1:3" s="16" customFormat="1" ht="12.75" customHeight="1"/>
-    <row r="14" spans="1:3" s="16" customFormat="1" ht="12.75" customHeight="1"/>
-    <row r="15" spans="1:3" s="16" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="10" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A10" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A11" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A12" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A13" s="40"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+    </row>
+    <row r="14" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A14" s="40"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+    </row>
+    <row r="15" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A15" s="40"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -1351,17 +1598,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="15.5" customWidth="1"/>
     <col min="2" max="2" width="24.1640625" customWidth="1"/>
-    <col min="3" max="3" width="25.1640625" customWidth="1"/>
+    <col min="3" max="3" width="30.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18" customHeight="1">
@@ -1399,36 +1646,68 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="18" customHeight="1">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="18" customHeight="1">
+      <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A6" t="s">
+    <row r="8" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A8" t="s">
         <v>78</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C8" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A7" t="s">
+    <row r="9" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A9" t="s">
         <v>79</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C9" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="12.75" customHeight="1">
       <c r="A10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
+        <v>92</v>
+      </c>
+      <c r="C10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1571,355 +1850,6 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="24.33203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
-  <sheetData>
-    <row r="1" spans="1:12" s="8" customFormat="1" ht="28" customHeight="1">
-      <c r="A1" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-    </row>
-    <row r="2" spans="1:12" s="5" customFormat="1" ht="28" customHeight="1">
-      <c r="A2" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="14"/>
-      <c r="J2"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-    </row>
-    <row r="3" spans="1:12" s="5" customFormat="1" ht="28" customHeight="1">
-      <c r="A3" s="14"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="H3" s="21"/>
-      <c r="I3" s="14"/>
-      <c r="J3"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-    </row>
-    <row r="4" spans="1:12" s="5" customFormat="1" ht="28" customHeight="1">
-      <c r="A4" s="14"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="H4" s="21"/>
-      <c r="I4" s="14"/>
-      <c r="J4"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-    </row>
-    <row r="5" spans="1:12" s="5" customFormat="1" ht="28" customHeight="1">
-      <c r="A5" s="14"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="G5" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="H5" s="21"/>
-      <c r="I5" s="14"/>
-      <c r="J5"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-    </row>
-    <row r="6" spans="1:12" s="4" customFormat="1" ht="28" customHeight="1">
-      <c r="A6" s="14"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="H6" s="21"/>
-      <c r="I6" s="14"/>
-      <c r="J6"/>
-      <c r="K6"/>
-      <c r="L6"/>
-    </row>
-    <row r="7" spans="1:12" ht="28" customHeight="1">
-      <c r="A7" s="14"/>
-      <c r="B7" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="14"/>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="24"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="29"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L13"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="10.83203125" style="7"/>
-    <col min="2" max="2" width="19" style="7" customWidth="1"/>
-    <col min="3" max="3" width="40.6640625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="22.33203125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="48.1640625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="30.83203125" style="7" customWidth="1"/>
-    <col min="7" max="7" width="71" style="7" customWidth="1"/>
-    <col min="8" max="8" width="26.6640625" style="7" customWidth="1"/>
-    <col min="9" max="9" width="31.1640625" style="7" customWidth="1"/>
-    <col min="10" max="10" width="15.6640625" style="7" customWidth="1"/>
-    <col min="11" max="11" width="28.33203125" style="7" customWidth="1"/>
-    <col min="12" max="16384" width="10.83203125" style="7"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" s="8" customFormat="1" ht="27" customHeight="1">
-      <c r="A1" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="L1" s="7"/>
-    </row>
-    <row r="2" spans="1:12" s="4" customFormat="1" ht="33" customHeight="1">
-      <c r="A2"/>
-      <c r="D2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="I2"/>
-      <c r="J2"/>
-      <c r="K2"/>
-      <c r="L2"/>
-    </row>
-    <row r="3" spans="1:12" s="32" customFormat="1" ht="27" customHeight="1">
-      <c r="D3" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="E3" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="G3" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="K3" s="33" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="9" customFormat="1" ht="27" customHeight="1">
-      <c r="A4" s="7"/>
-      <c r="B4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-    </row>
-    <row r="5" spans="1:12" s="32" customFormat="1" ht="27" customHeight="1">
-      <c r="B5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="G5" s="33"/>
-    </row>
-    <row r="6" spans="1:12" s="32" customFormat="1" ht="27" customHeight="1">
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="1:12" s="32" customFormat="1" ht="27" customHeight="1">
-      <c r="B7" s="4"/>
-      <c r="C7"/>
-      <c r="D7"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="1:12" s="9" customFormat="1" ht="27" customHeight="1">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-    </row>
-    <row r="10" spans="1:12" s="32" customFormat="1" ht="27" customHeight="1">
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="G10" s="33"/>
-    </row>
-    <row r="11" spans="1:12" ht="27" customHeight="1">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-    </row>
-    <row r="12" spans="1:12" ht="27" customHeight="1">
-      <c r="F12" s="34"/>
-    </row>
-    <row r="13" spans="1:12" ht="27" customHeight="1">
-      <c r="F13" s="34"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1953,7 +1883,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -1993,4 +1923,427 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="24.33203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:12" s="8" customFormat="1" ht="28" customHeight="1">
+      <c r="A1" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+    </row>
+    <row r="2" spans="1:12" s="5" customFormat="1" ht="28" customHeight="1">
+      <c r="A2" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="14"/>
+      <c r="J2"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+    </row>
+    <row r="3" spans="1:12" s="5" customFormat="1" ht="28" customHeight="1">
+      <c r="A3" s="14"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" s="21"/>
+      <c r="I3" s="14"/>
+      <c r="J3"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+    </row>
+    <row r="4" spans="1:12" s="5" customFormat="1" ht="28" customHeight="1">
+      <c r="A4" s="14"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" s="21"/>
+      <c r="I4" s="14"/>
+      <c r="J4"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+    </row>
+    <row r="5" spans="1:12" s="5" customFormat="1" ht="28" customHeight="1">
+      <c r="A5" s="14"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="H5" s="21"/>
+      <c r="I5" s="14"/>
+      <c r="J5"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+    </row>
+    <row r="6" spans="1:12" s="4" customFormat="1" ht="28" customHeight="1">
+      <c r="A6" s="14"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" s="21"/>
+      <c r="I6" s="14"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+    </row>
+    <row r="7" spans="1:12" ht="28" customHeight="1">
+      <c r="A7" s="14"/>
+      <c r="B7" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="14"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="24"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="29"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L14"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="25.33203125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="19" style="7" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="48.1640625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="30.83203125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="71" style="7" customWidth="1"/>
+    <col min="8" max="8" width="26.6640625" style="7" customWidth="1"/>
+    <col min="9" max="9" width="31.1640625" style="7" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" style="7" customWidth="1"/>
+    <col min="11" max="11" width="28.33203125" style="7" customWidth="1"/>
+    <col min="12" max="16384" width="10.83203125" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="8" customFormat="1" ht="27" customHeight="1">
+      <c r="A1" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L1" s="7"/>
+    </row>
+    <row r="2" spans="1:12" s="4" customFormat="1" ht="33" customHeight="1">
+      <c r="A2"/>
+      <c r="D2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+    </row>
+    <row r="3" spans="1:12" customFormat="1" ht="33" customHeight="1">
+      <c r="A3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="32" customFormat="1" ht="27" customHeight="1">
+      <c r="D4" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="G4" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="K4" s="33" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="9" customFormat="1" ht="27" customHeight="1">
+      <c r="A5" s="7"/>
+      <c r="B5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+    </row>
+    <row r="6" spans="1:12" s="32" customFormat="1" ht="27" customHeight="1">
+      <c r="B6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="G6" s="33"/>
+    </row>
+    <row r="7" spans="1:12" s="32" customFormat="1" ht="27" customHeight="1">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:12" s="32" customFormat="1" ht="27" customHeight="1">
+      <c r="B8" s="4"/>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:12" s="9" customFormat="1" ht="27" customHeight="1">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+    </row>
+    <row r="11" spans="1:12" s="32" customFormat="1" ht="27" customHeight="1">
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="G11" s="33"/>
+    </row>
+    <row r="12" spans="1:12" ht="27" customHeight="1">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+    </row>
+    <row r="13" spans="1:12" ht="27" customHeight="1">
+      <c r="F13" s="34"/>
+    </row>
+    <row r="14" spans="1:12" ht="27" customHeight="1">
+      <c r="F14" s="34"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:12" s="8" customFormat="1" ht="27" customHeight="1">
+      <c r="A1" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L1" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/cohesionAndConflict_odkx/app/config/tables/household_census/forms/household_census/household_census.xlsx
+++ b/cohesionAndConflict_odkx/app/config/tables/household_census/forms/household_census/household_census.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2020" yWindow="620" windowWidth="25600" windowHeight="16060"/>
+    <workbookView xWindow="1840" yWindow="140" windowWidth="29180" windowHeight="16660" tabRatio="617" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="161">
   <si>
     <t>type</t>
   </si>
@@ -242,9 +242,6 @@
     <t xml:space="preserve">household_id = ? </t>
   </si>
   <si>
-    <t>Make a list of all individuals who normally live in this household</t>
-  </si>
-  <si>
     <t>display.new_instance_label.text</t>
   </si>
   <si>
@@ -305,9 +302,6 @@
     <t>customary_membership</t>
   </si>
   <si>
-    <t>What is the houeshold's customary membership?</t>
-  </si>
-  <si>
     <t>asset_wealth</t>
   </si>
   <si>
@@ -333,6 +327,192 @@
   </si>
   <si>
     <t>Customary membership of household</t>
+  </si>
+  <si>
+    <t>What is the household's customary membership?</t>
+  </si>
+  <si>
+    <t>Make a list of all individuals who normally live in this household:</t>
+  </si>
+  <si>
+    <t>asset_inventory</t>
+  </si>
+  <si>
+    <t>thing1</t>
+  </si>
+  <si>
+    <t>Thing 1</t>
+  </si>
+  <si>
+    <t>thing2</t>
+  </si>
+  <si>
+    <t>thing3</t>
+  </si>
+  <si>
+    <t>thing4</t>
+  </si>
+  <si>
+    <t>thing5</t>
+  </si>
+  <si>
+    <t>thing6</t>
+  </si>
+  <si>
+    <t>thing7</t>
+  </si>
+  <si>
+    <t>thing8</t>
+  </si>
+  <si>
+    <t>thing9</t>
+  </si>
+  <si>
+    <t>thing10</t>
+  </si>
+  <si>
+    <t>Thing 2</t>
+  </si>
+  <si>
+    <t>Thing 3</t>
+  </si>
+  <si>
+    <t>Thing 4</t>
+  </si>
+  <si>
+    <t>Thing 5</t>
+  </si>
+  <si>
+    <t>Thing 6</t>
+  </si>
+  <si>
+    <t>Thing 7</t>
+  </si>
+  <si>
+    <t>Thing 8</t>
+  </si>
+  <si>
+    <t>Thing 9</t>
+  </si>
+  <si>
+    <t>Thing 10</t>
+  </si>
+  <si>
+    <t>asset wealth</t>
+  </si>
+  <si>
+    <t>do section asset_wealth</t>
+  </si>
+  <si>
+    <t>select_multiple</t>
+  </si>
+  <si>
+    <t>Select which of the following items are present in the household:</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>How much money did you earn in the past week?</t>
+  </si>
+  <si>
+    <t>income_head_source</t>
+  </si>
+  <si>
+    <t>How did you earn this money?</t>
+  </si>
+  <si>
+    <t>income_head_amount</t>
+  </si>
+  <si>
+    <t>income_spouse_amount</t>
+  </si>
+  <si>
+    <t>How much money did your spouse earn in the past week?</t>
+  </si>
+  <si>
+    <t>income_spouse_source</t>
+  </si>
+  <si>
+    <t>How did they earn this money?</t>
+  </si>
+  <si>
+    <t>income of head and spouse</t>
+  </si>
+  <si>
+    <t>do section income</t>
+  </si>
+  <si>
+    <t>TEST WOOP END</t>
+  </si>
+  <si>
+    <t>food security</t>
+  </si>
+  <si>
+    <t>food_security_list</t>
+  </si>
+  <si>
+    <t>Always had enough</t>
+  </si>
+  <si>
+    <t>Always had enough, but sometimes food was of low quality</t>
+  </si>
+  <si>
+    <t>Didn't have enough a few times a year</t>
+  </si>
+  <si>
+    <t>Didn't have enough a few times a month</t>
+  </si>
+  <si>
+    <t>Didn't have enough a few times a week</t>
+  </si>
+  <si>
+    <t>Never or almost never had enough</t>
+  </si>
+  <si>
+    <t>In the last year has your household had enough food for three meals a day?</t>
+  </si>
+  <si>
+    <t>do section food_security</t>
+  </si>
+  <si>
+    <t>select_one_integer</t>
+  </si>
+  <si>
+    <t>crops_kava</t>
+  </si>
+  <si>
+    <t>Approximately how many kava plants do you have currently under cultivation?</t>
+  </si>
+  <si>
+    <t>crops_taro</t>
+  </si>
+  <si>
+    <t>Approximately how many taro plants do you have currently under cultivation?</t>
+  </si>
+  <si>
+    <t>crops_cassava</t>
+  </si>
+  <si>
+    <t>Approximately how many cassava plants do you have currently under cultivation?</t>
+  </si>
+  <si>
+    <t>fish_days</t>
+  </si>
+  <si>
+    <t>In an average week, how many days do members of your household go fishing?</t>
+  </si>
+  <si>
+    <t>fish_catch</t>
+  </si>
+  <si>
+    <t>On average, how many fish are caught when out fishing?</t>
+  </si>
+  <si>
+    <t>crops and fishing</t>
+  </si>
+  <si>
+    <t>do section crops_fishing</t>
   </si>
 </sst>
 </file>
@@ -375,7 +555,7 @@
       <name val="Courier"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -417,8 +597,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -489,8 +681,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="147">
+  <cellStyleXfs count="175">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -638,8 +843,36 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -739,8 +972,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="147">
+  <cellStyles count="175">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -813,6 +1055,20 @@
     <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -885,6 +1141,20 @@
     <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
     <cellStyle name="Note" xfId="68" builtinId="10"/>
@@ -1191,8 +1461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="XFB4" sqref="XFB4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="28" customHeight="1" x14ac:dyDescent="0"/>
@@ -1254,7 +1524,7 @@
         <v>61</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
@@ -1286,7 +1556,39 @@
         <v>63</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="28" customHeight="1">
+      <c r="A6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="28" customHeight="1">
+      <c r="A7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="28" customHeight="1">
+      <c r="A8" t="s">
+        <v>138</v>
+      </c>
+      <c r="B8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="28" customHeight="1">
+      <c r="A9" t="s">
+        <v>159</v>
+      </c>
+      <c r="B9" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="28" customHeight="1">
@@ -1302,6 +1604,12 @@
     </row>
     <row r="13" spans="1:12" ht="28" customHeight="1">
       <c r="A13" s="15"/>
+      <c r="D13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" t="s">
+        <v>137</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1316,13 +1624,17 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="6" max="6" width="23.1640625" customWidth="1"/>
+    <col min="7" max="7" width="40.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" s="8" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="19" t="s">
@@ -1356,12 +1668,67 @@
         <v>23</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L1" s="7"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="D3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>128</v>
+      </c>
+      <c r="G4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="24">
+      <c r="D5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F5" t="s">
+        <v>131</v>
+      </c>
+      <c r="G5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" t="s">
+        <v>133</v>
+      </c>
+      <c r="G6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1372,13 +1739,17 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="4" max="4" width="18.83203125" customWidth="1"/>
+    <col min="7" max="7" width="33" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" s="8" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="19" t="s">
@@ -1412,12 +1783,37 @@
         <v>23</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L1" s="7"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="24">
+      <c r="D3" s="42" t="s">
+        <v>148</v>
+      </c>
+      <c r="E3" s="43" t="s">
+        <v>139</v>
+      </c>
+      <c r="F3" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="G3" s="43" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1428,13 +1824,121 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6:F7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="19.33203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="7" max="7" width="42.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="8" customFormat="1" ht="27" customHeight="1">
+      <c r="A1" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="L1" s="7"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="24">
+      <c r="D3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F3" t="s">
+        <v>149</v>
+      </c>
+      <c r="G3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="24">
+      <c r="D4" t="s">
+        <v>126</v>
+      </c>
+      <c r="F4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="24">
+      <c r="D5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F5" t="s">
+        <v>153</v>
+      </c>
+      <c r="G5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="24">
+      <c r="D6" t="s">
+        <v>126</v>
+      </c>
+      <c r="F6" t="s">
+        <v>155</v>
+      </c>
+      <c r="G6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="24">
+      <c r="D7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F7" t="s">
+        <v>157</v>
+      </c>
+      <c r="G7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1445,10 +1949,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -1539,35 +2043,35 @@
     </row>
     <row r="10" spans="1:3" ht="12.75" customHeight="1">
       <c r="A10" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="C10" s="16" t="s">
         <v>83</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="12.75" customHeight="1">
       <c r="A11" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B11" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" s="16" t="s">
         <v>85</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="12.75" customHeight="1">
       <c r="A12" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B12" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="16" t="s">
         <v>87</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="12.75" customHeight="1">
@@ -1576,14 +2080,185 @@
       <c r="C13" s="40"/>
     </row>
     <row r="14" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A14" s="40"/>
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
+      <c r="A14" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="B14" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" s="41" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="15" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A15" s="40"/>
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
+      <c r="A15" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="B15" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="C15" s="41" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A16" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="B16" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16" s="41" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A17" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="B17" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="C17" s="41" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A18" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="B18" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="C18" s="41" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A19" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="B19" s="41" t="s">
+        <v>108</v>
+      </c>
+      <c r="C19" s="41" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A20" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="B20" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="C20" s="41" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A21" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="B21" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="C21" s="41" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A22" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="B22" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="C22" s="41" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A23" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="B23" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="C23" s="41" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A24" s="40"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="40"/>
+    </row>
+    <row r="25" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A25" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="B25" s="16">
+        <v>1</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A26" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="B26" s="16">
+        <v>2</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A27" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="B27" s="16">
+        <v>3</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A28" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="B28" s="16">
+        <v>4</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A29" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="B29" s="16">
+        <v>5</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A30" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="B30" s="16">
+        <v>6</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>145</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1664,50 +2339,50 @@
     </row>
     <row r="8" spans="1:3" ht="12.75" customHeight="1">
       <c r="A8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="12.75" customHeight="1">
       <c r="A9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="12.75" customHeight="1">
       <c r="A10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="12.75" customHeight="1">
       <c r="A11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="12.75" customHeight="1">
       <c r="A12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="12.75" customHeight="1">
       <c r="A13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1725,8 +2400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -1780,16 +2455,16 @@
     </row>
     <row r="3" spans="1:9" ht="24">
       <c r="B3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C3" t="s">
         <v>65</v>
       </c>
       <c r="D3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>69</v>
@@ -1885,13 +2560,17 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="29.1640625" customWidth="1"/>
+    <col min="2" max="2" width="18.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="30" t="s">
@@ -1907,7 +2586,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="24">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1915,8 +2594,97 @@
         <v>3</v>
       </c>
     </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>133</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>94</v>
+      </c>
+      <c r="B11" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>149</v>
+      </c>
+      <c r="B13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>151</v>
+      </c>
+      <c r="B14" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>153</v>
+      </c>
+      <c r="B15" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>155</v>
+      </c>
+      <c r="B16" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>157</v>
+      </c>
+      <c r="B17" t="s">
+        <v>126</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2108,8 +2876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0"/>
@@ -2160,7 +2928,7 @@
         <v>23</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L1" s="7"/>
     </row>
@@ -2170,7 +2938,7 @@
         <v>29</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I2"/>
       <c r="J2"/>
@@ -2179,20 +2947,20 @@
     </row>
     <row r="3" spans="1:12" customFormat="1" ht="33" customHeight="1">
       <c r="A3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F3" t="s">
         <v>89</v>
       </c>
-      <c r="E3" t="s">
-        <v>82</v>
-      </c>
-      <c r="F3" t="s">
-        <v>90</v>
-      </c>
       <c r="G3" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="32" customFormat="1" ht="27" customHeight="1">
@@ -2200,13 +2968,13 @@
         <v>65</v>
       </c>
       <c r="E4" s="33" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G4" s="33" t="s">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="K4" s="33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="9" customFormat="1" ht="27" customHeight="1">
@@ -2294,13 +3062,19 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="7" max="7" width="45.83203125" customWidth="1"/>
+    <col min="11" max="11" width="19.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" s="8" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="19" t="s">
@@ -2334,12 +3108,37 @@
         <v>23</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L1" s="7"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="24">
+      <c r="D4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/cohesionAndConflict_odkx/app/config/tables/household_census/forms/household_census/household_census.xlsx
+++ b/cohesionAndConflict_odkx/app/config/tables/household_census/forms/household_census/household_census.xlsx
@@ -4,21 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1840" yWindow="140" windowWidth="29180" windowHeight="16660" tabRatio="617" activeTab="3"/>
+    <workbookView xWindow="4540" yWindow="1800" windowWidth="25360" windowHeight="15820" tabRatio="617" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
     <sheet name="choices" sheetId="3" r:id="rId2"/>
     <sheet name="settings" sheetId="4" r:id="rId3"/>
     <sheet name="queries" sheetId="6" r:id="rId4"/>
-    <sheet name="calculates" sheetId="10" r:id="rId5"/>
-    <sheet name="model" sheetId="13" r:id="rId6"/>
-    <sheet name="id" sheetId="11" r:id="rId7"/>
-    <sheet name="members" sheetId="7" r:id="rId8"/>
-    <sheet name="asset_wealth" sheetId="14" r:id="rId9"/>
-    <sheet name="income" sheetId="15" r:id="rId10"/>
-    <sheet name="food_security" sheetId="16" r:id="rId11"/>
-    <sheet name="crops_fishing" sheetId="17" r:id="rId12"/>
+    <sheet name="model" sheetId="13" r:id="rId5"/>
+    <sheet name="id" sheetId="11" r:id="rId6"/>
+    <sheet name="members" sheetId="7" r:id="rId7"/>
+    <sheet name="asset_wealth" sheetId="14" r:id="rId8"/>
+    <sheet name="income" sheetId="15" r:id="rId9"/>
+    <sheet name="food_security" sheetId="16" r:id="rId10"/>
+    <sheet name="crops_fishing" sheetId="17" r:id="rId11"/>
+    <sheet name="calculates" sheetId="10" r:id="rId12"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="161">
   <si>
     <t>type</t>
   </si>
@@ -233,9 +233,6 @@
     <t>[ data('household_id') ]</t>
   </si>
   <si>
-    <t>{ household_id : data('household_id') }</t>
-  </si>
-  <si>
     <t>{}</t>
   </si>
   <si>
@@ -296,9 +293,6 @@
     <t>Yavusa</t>
   </si>
   <si>
-    <t>select_one_with_other</t>
-  </si>
-  <si>
     <t>customary_membership</t>
   </si>
   <si>
@@ -513,6 +507,12 @@
   </si>
   <si>
     <t>do section crops_fishing</t>
+  </si>
+  <si>
+    <t>select_one</t>
+  </si>
+  <si>
+    <t>{ household_id : data('household_id'), customary_membership : data('customary_membership') }</t>
   </si>
 </sst>
 </file>
@@ -695,7 +695,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="175">
+  <cellStyleXfs count="181">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -765,6 +765,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -982,7 +988,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="175">
+  <cellStyles count="181">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -1069,6 +1075,9 @@
     <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -1155,6 +1164,9 @@
     <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
     <cellStyle name="Note" xfId="68" builtinId="10"/>
@@ -1462,7 +1474,7 @@
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="28" customHeight="1" x14ac:dyDescent="0"/>
@@ -1524,7 +1536,7 @@
         <v>61</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
@@ -1556,39 +1568,39 @@
         <v>63</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="28" customHeight="1">
       <c r="A6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="28" customHeight="1">
       <c r="A7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="28" customHeight="1">
       <c r="A8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="28" customHeight="1">
       <c r="A9" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B9" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="28" customHeight="1">
@@ -1608,7 +1620,7 @@
         <v>29</v>
       </c>
       <c r="G13" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -1623,121 +1635,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="6" max="6" width="23.1640625" customWidth="1"/>
-    <col min="7" max="7" width="40.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" s="8" customFormat="1" ht="27" customHeight="1">
-      <c r="A1" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="L1" s="7"/>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="B2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="D3" t="s">
-        <v>126</v>
-      </c>
-      <c r="F3" t="s">
-        <v>130</v>
-      </c>
-      <c r="G3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" t="s">
-        <v>128</v>
-      </c>
-      <c r="G4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="24">
-      <c r="D5" t="s">
-        <v>126</v>
-      </c>
-      <c r="F5" t="s">
-        <v>131</v>
-      </c>
-      <c r="G5" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="D6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" t="s">
-        <v>133</v>
-      </c>
-      <c r="G6" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="B7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L4"/>
   <sheetViews>
@@ -1783,7 +1680,7 @@
         <v>23</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L1" s="7"/>
     </row>
@@ -1794,16 +1691,16 @@
     </row>
     <row r="3" spans="1:12" ht="24">
       <c r="D3" s="42" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E3" s="43" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F3" s="43" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G3" s="43" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1822,7 +1719,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L8"/>
   <sheetViews>
@@ -1867,7 +1764,7 @@
         <v>23</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L1" s="7"/>
     </row>
@@ -1878,57 +1775,57 @@
     </row>
     <row r="3" spans="1:12" ht="24">
       <c r="D3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="24">
       <c r="D4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="24">
       <c r="D5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="24">
       <c r="D6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="24">
       <c r="D7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1936,6 +1833,41 @@
         <v>37</v>
       </c>
     </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="25.1640625" customWidth="1"/>
+    <col min="2" max="2" width="53.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="38" customHeight="1"/>
+    <row r="3" spans="1:2" ht="38" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -2043,35 +1975,35 @@
     </row>
     <row r="10" spans="1:3" ht="12.75" customHeight="1">
       <c r="A10" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="C10" s="16" t="s">
         <v>82</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="12.75" customHeight="1">
       <c r="A11" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B11" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="16" t="s">
         <v>84</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="12.75" customHeight="1">
       <c r="A12" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B12" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="16" t="s">
         <v>86</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="12.75" customHeight="1">
@@ -2081,112 +2013,112 @@
     </row>
     <row r="14" spans="1:3" ht="12.75" customHeight="1">
       <c r="A14" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="C14" s="41" t="s">
         <v>101</v>
-      </c>
-      <c r="B14" s="41" t="s">
-        <v>102</v>
-      </c>
-      <c r="C14" s="41" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="12.75" customHeight="1">
       <c r="A15" s="41" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B15" s="41" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C15" s="41" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="12.75" customHeight="1">
       <c r="A16" s="41" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B16" s="41" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C16" s="41" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="12.75" customHeight="1">
       <c r="A17" s="41" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B17" s="41" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C17" s="41" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="12.75" customHeight="1">
       <c r="A18" s="41" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B18" s="41" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C18" s="41" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="12.75" customHeight="1">
       <c r="A19" s="41" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B19" s="41" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C19" s="41" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="12.75" customHeight="1">
       <c r="A20" s="41" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B20" s="41" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C20" s="41" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="12.75" customHeight="1">
       <c r="A21" s="41" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B21" s="41" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C21" s="41" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="12.75" customHeight="1">
       <c r="A22" s="41" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B22" s="41" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C22" s="41" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="12.75" customHeight="1">
       <c r="A23" s="41" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B23" s="41" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C23" s="41" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="12.75" customHeight="1">
@@ -2196,68 +2128,68 @@
     </row>
     <row r="25" spans="1:3" ht="12.75" customHeight="1">
       <c r="A25" s="16" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B25" s="16">
         <v>1</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="12.75" customHeight="1">
       <c r="A26" s="16" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B26" s="16">
         <v>2</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="12.75" customHeight="1">
       <c r="A27" s="16" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B27" s="16">
         <v>3</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="12.75" customHeight="1">
       <c r="A28" s="16" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B28" s="16">
         <v>4</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="12.75" customHeight="1">
       <c r="A29" s="16" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B29" s="16">
         <v>5</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="12.75" customHeight="1">
       <c r="A30" s="16" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B30" s="16">
         <v>6</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -2310,7 +2242,7 @@
         <v>10</v>
       </c>
       <c r="B3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="18" customHeight="1">
@@ -2339,50 +2271,50 @@
     </row>
     <row r="8" spans="1:3" ht="12.75" customHeight="1">
       <c r="A8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="12.75" customHeight="1">
       <c r="A9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="12.75" customHeight="1">
       <c r="A10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="12.75" customHeight="1">
       <c r="A11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="12.75" customHeight="1">
       <c r="A12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="12.75" customHeight="1">
       <c r="A13" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2400,14 +2332,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="16.33203125" customWidth="1"/>
-    <col min="2" max="2" width="18.5" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" customWidth="1"/>
     <col min="3" max="3" width="17.5" customWidth="1"/>
     <col min="4" max="4" width="22.83203125" customWidth="1"/>
     <col min="5" max="5" width="19.6640625" customWidth="1"/>
@@ -2453,30 +2385,30 @@
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
     </row>
-    <row r="3" spans="1:9" ht="24">
+    <row r="3" spans="1:9" ht="36">
       <c r="B3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C3" t="s">
         <v>65</v>
       </c>
       <c r="D3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>66</v>
       </c>
       <c r="H3" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -2525,28 +2457,136 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="25.1640625" customWidth="1"/>
-    <col min="2" max="2" width="53.6640625" customWidth="1"/>
+    <col min="1" max="1" width="29.1640625" customWidth="1"/>
+    <col min="2" max="2" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="38" customHeight="1"/>
-    <row r="3" spans="1:2" ht="38" customHeight="1"/>
+    <row r="1" spans="1:4">
+      <c r="A1" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>92</v>
+      </c>
+      <c r="B11" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>147</v>
+      </c>
+      <c r="B13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>149</v>
+      </c>
+      <c r="B14" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>151</v>
+      </c>
+      <c r="B15" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>153</v>
+      </c>
+      <c r="B16" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>155</v>
+      </c>
+      <c r="B17" t="s">
+        <v>124</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -2560,127 +2600,171 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="29.1640625" customWidth="1"/>
-    <col min="2" max="2" width="18.83203125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="24.33203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:12" s="8" customFormat="1" ht="28" customHeight="1">
+      <c r="A1" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="31" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="G1" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+    </row>
+    <row r="2" spans="1:12" s="5" customFormat="1" ht="28" customHeight="1">
+      <c r="A2" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="14"/>
+      <c r="J2"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+    </row>
+    <row r="3" spans="1:12" s="5" customFormat="1" ht="28" customHeight="1">
+      <c r="A3" s="14"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" s="21"/>
+      <c r="I3" s="14"/>
+      <c r="J3"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+    </row>
+    <row r="4" spans="1:12" s="5" customFormat="1" ht="28" customHeight="1">
+      <c r="A4" s="14"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" s="21"/>
+      <c r="I4" s="14"/>
+      <c r="J4"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+    </row>
+    <row r="5" spans="1:12" s="5" customFormat="1" ht="28" customHeight="1">
+      <c r="A5" s="14"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="H5" s="21"/>
+      <c r="I5" s="14"/>
+      <c r="J5"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+    </row>
+    <row r="6" spans="1:12" s="4" customFormat="1" ht="28" customHeight="1">
+      <c r="A6" s="14"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>130</v>
-      </c>
-      <c r="B6" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>128</v>
-      </c>
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>131</v>
-      </c>
-      <c r="B8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>133</v>
-      </c>
-      <c r="B9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>94</v>
-      </c>
-      <c r="B11" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>149</v>
-      </c>
-      <c r="B13" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>151</v>
-      </c>
-      <c r="B14" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>153</v>
-      </c>
-      <c r="B15" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>155</v>
-      </c>
-      <c r="B16" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>157</v>
-      </c>
-      <c r="B17" t="s">
-        <v>126</v>
-      </c>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" s="21"/>
+      <c r="I6" s="14"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+    </row>
+    <row r="7" spans="1:12" ht="28" customHeight="1">
+      <c r="A7" s="14"/>
+      <c r="B7" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="14"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="24"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2695,189 +2779,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="24.33203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
-  <sheetData>
-    <row r="1" spans="1:12" s="8" customFormat="1" ht="28" customHeight="1">
-      <c r="A1" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-    </row>
-    <row r="2" spans="1:12" s="5" customFormat="1" ht="28" customHeight="1">
-      <c r="A2" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="14"/>
-      <c r="J2"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-    </row>
-    <row r="3" spans="1:12" s="5" customFormat="1" ht="28" customHeight="1">
-      <c r="A3" s="14"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="H3" s="21"/>
-      <c r="I3" s="14"/>
-      <c r="J3"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-    </row>
-    <row r="4" spans="1:12" s="5" customFormat="1" ht="28" customHeight="1">
-      <c r="A4" s="14"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="H4" s="21"/>
-      <c r="I4" s="14"/>
-      <c r="J4"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-    </row>
-    <row r="5" spans="1:12" s="5" customFormat="1" ht="28" customHeight="1">
-      <c r="A5" s="14"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="G5" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="H5" s="21"/>
-      <c r="I5" s="14"/>
-      <c r="J5"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-    </row>
-    <row r="6" spans="1:12" s="4" customFormat="1" ht="28" customHeight="1">
-      <c r="A6" s="14"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="H6" s="21"/>
-      <c r="I6" s="14"/>
-      <c r="J6"/>
-      <c r="K6"/>
-      <c r="L6"/>
-    </row>
-    <row r="7" spans="1:12" ht="28" customHeight="1">
-      <c r="A7" s="14"/>
-      <c r="B7" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="14"/>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="24"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="29"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L14"/>
-  <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0"/>
@@ -2928,126 +2833,150 @@
         <v>23</v>
       </c>
       <c r="K1" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L1" s="7"/>
+    </row>
+    <row r="2" spans="1:12" s="8" customFormat="1" ht="15" customHeight="1">
+      <c r="A2" s="7"/>
+      <c r="B2" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+    </row>
+    <row r="3" spans="1:12" s="4" customFormat="1" ht="33" customHeight="1">
+      <c r="A3"/>
+      <c r="D3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+    </row>
+    <row r="4" spans="1:12" customFormat="1" ht="33" customHeight="1">
+      <c r="A4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" t="s">
+        <v>159</v>
+      </c>
+      <c r="E4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" customFormat="1" ht="33" customHeight="1">
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="7"/>
+    </row>
+    <row r="6" spans="1:12" customFormat="1" ht="33" customHeight="1">
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="7"/>
+    </row>
+    <row r="7" spans="1:12" s="32" customFormat="1" ht="27" customHeight="1">
+      <c r="D7" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="K7" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="L1" s="7"/>
-    </row>
-    <row r="2" spans="1:12" s="4" customFormat="1" ht="33" customHeight="1">
-      <c r="A2"/>
-      <c r="D2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="I2"/>
-      <c r="J2"/>
-      <c r="K2"/>
-      <c r="L2"/>
-    </row>
-    <row r="3" spans="1:12" customFormat="1" ht="33" customHeight="1">
-      <c r="A3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="D3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F3" t="s">
-        <v>89</v>
-      </c>
-      <c r="G3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="32" customFormat="1" ht="27" customHeight="1">
-      <c r="D4" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="E4" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="G4" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="K4" s="33" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="9" customFormat="1" ht="27" customHeight="1">
-      <c r="A5" s="7"/>
-      <c r="B5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-    </row>
-    <row r="6" spans="1:12" s="32" customFormat="1" ht="27" customHeight="1">
-      <c r="B6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="G6" s="33"/>
-    </row>
-    <row r="7" spans="1:12" s="32" customFormat="1" ht="27" customHeight="1">
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="1:12" s="32" customFormat="1" ht="27" customHeight="1">
-      <c r="B8" s="4"/>
-      <c r="C8"/>
-      <c r="D8"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9" spans="1:12" s="9" customFormat="1" ht="27" customHeight="1">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
+    </row>
+    <row r="8" spans="1:12" s="9" customFormat="1" ht="17" customHeight="1">
+      <c r="A8" s="7"/>
+      <c r="B8" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+    </row>
+    <row r="9" spans="1:12" s="32" customFormat="1" ht="27" customHeight="1">
+      <c r="B9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="G9" s="33"/>
+    </row>
+    <row r="10" spans="1:12" s="32" customFormat="1" ht="27" customHeight="1">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:12" s="32" customFormat="1" ht="27" customHeight="1">
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="G11" s="33"/>
-    </row>
-    <row r="12" spans="1:12" ht="27" customHeight="1">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-    </row>
-    <row r="13" spans="1:12" ht="27" customHeight="1">
-      <c r="F13" s="34"/>
-    </row>
-    <row r="14" spans="1:12" ht="27" customHeight="1">
-      <c r="F14" s="34"/>
+      <c r="B11" s="4"/>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:12" s="9" customFormat="1" ht="27" customHeight="1">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+    </row>
+    <row r="14" spans="1:12" s="32" customFormat="1" ht="27" customHeight="1">
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="G14" s="33"/>
+    </row>
+    <row r="15" spans="1:12" ht="27" customHeight="1">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+    </row>
+    <row r="16" spans="1:12" ht="27" customHeight="1">
+      <c r="F16" s="34"/>
+    </row>
+    <row r="17" spans="6:6" ht="27" customHeight="1">
+      <c r="F17" s="34"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3060,7 +2989,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L5"/>
   <sheetViews>
@@ -3108,7 +3037,7 @@
         <v>23</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L1" s="7"/>
     </row>
@@ -3119,20 +3048,135 @@
     </row>
     <row r="4" spans="1:12" ht="24">
       <c r="D4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="B5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="6" max="6" width="23.1640625" customWidth="1"/>
+    <col min="7" max="7" width="40.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="8" customFormat="1" ht="27" customHeight="1">
+      <c r="A1" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L1" s="7"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="D3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>126</v>
+      </c>
+      <c r="G4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="24">
+      <c r="D5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" t="s">
+        <v>131</v>
+      </c>
+      <c r="G6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="B7" t="s">
         <v>37</v>
       </c>
     </row>

--- a/cohesionAndConflict_odkx/app/config/tables/household_census/forms/household_census/household_census.xlsx
+++ b/cohesionAndConflict_odkx/app/config/tables/household_census/forms/household_census/household_census.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4540" yWindow="1800" windowWidth="25360" windowHeight="15820" tabRatio="617" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="2840" yWindow="2600" windowWidth="27540" windowHeight="15820" tabRatio="617" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -13,12 +13,14 @@
     <sheet name="queries" sheetId="6" r:id="rId4"/>
     <sheet name="model" sheetId="13" r:id="rId5"/>
     <sheet name="id" sheetId="11" r:id="rId6"/>
-    <sheet name="members" sheetId="7" r:id="rId7"/>
-    <sheet name="asset_wealth" sheetId="14" r:id="rId8"/>
-    <sheet name="income" sheetId="15" r:id="rId9"/>
-    <sheet name="food_security" sheetId="16" r:id="rId10"/>
-    <sheet name="crops_fishing" sheetId="17" r:id="rId11"/>
-    <sheet name="calculates" sheetId="10" r:id="rId12"/>
+    <sheet name="customary_membership" sheetId="18" r:id="rId7"/>
+    <sheet name="members" sheetId="7" r:id="rId8"/>
+    <sheet name="marriages" sheetId="19" r:id="rId9"/>
+    <sheet name="asset_wealth" sheetId="14" r:id="rId10"/>
+    <sheet name="income" sheetId="15" r:id="rId11"/>
+    <sheet name="food_security" sheetId="16" r:id="rId12"/>
+    <sheet name="crops_fishing" sheetId="17" r:id="rId13"/>
+    <sheet name="calculates" sheetId="10" r:id="rId14"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="176">
   <si>
     <t>type</t>
   </si>
@@ -218,9 +220,6 @@
     <t>generate household ID</t>
   </si>
   <si>
-    <t>assign household_id</t>
-  </si>
-  <si>
     <t>household members</t>
   </si>
   <si>
@@ -245,9 +244,6 @@
     <t>Add House Member</t>
   </si>
   <si>
-    <t>Household Composition</t>
-  </si>
-  <si>
     <t>Household ID</t>
   </si>
   <si>
@@ -320,12 +316,6 @@
     <t>Crops under Cultivation/Fishing</t>
   </si>
   <si>
-    <t>Customary membership of household</t>
-  </si>
-  <si>
-    <t>What is the household's customary membership?</t>
-  </si>
-  <si>
     <t>Make a list of all individuals who normally live in this household:</t>
   </si>
   <si>
@@ -437,9 +427,6 @@
     <t>do section income</t>
   </si>
   <si>
-    <t>TEST WOOP END</t>
-  </si>
-  <si>
     <t>food security</t>
   </si>
   <si>
@@ -512,14 +499,74 @@
     <t>select_one</t>
   </si>
   <si>
-    <t>{ household_id : data('household_id'), customary_membership : data('customary_membership') }</t>
+    <t>assign readable household_id</t>
+  </si>
+  <si>
+    <t>roster</t>
+  </si>
+  <si>
+    <t>creates roster</t>
+  </si>
+  <si>
+    <t>customary membership for household</t>
+  </si>
+  <si>
+    <t>do section customary_membership</t>
+  </si>
+  <si>
+    <t>Customary Membership</t>
+  </si>
+  <si>
+    <t>Collect customary membership details</t>
+  </si>
+  <si>
+    <t>Customary Membership Information:</t>
+  </si>
+  <si>
+    <t>Tokatoka:</t>
+  </si>
+  <si>
+    <t>Yavusa:</t>
+  </si>
+  <si>
+    <t>Matagali:</t>
+  </si>
+  <si>
+    <t>membership_notes</t>
+  </si>
+  <si>
+    <t>Extra Notes:</t>
+  </si>
+  <si>
+    <t>{ household_id : data('household_id') }</t>
+  </si>
+  <si>
+    <t>marriages</t>
+  </si>
+  <si>
+    <t>Marriage Information</t>
+  </si>
+  <si>
+    <t>Marriage Information:</t>
+  </si>
+  <si>
+    <t>Something here describing what I want them to tell me about:</t>
+  </si>
+  <si>
+    <t>Marriages</t>
+  </si>
+  <si>
+    <t>do section marriages</t>
+  </si>
+  <si>
+    <t>linked_marriages</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -549,13 +596,8 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Courier"/>
-    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -609,8 +651,14 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -651,30 +699,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="thin">
         <color auto="1"/>
@@ -695,7 +719,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="181">
+  <cellStyleXfs count="201">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -877,8 +901,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -933,30 +977,7 @@
     <xf numFmtId="49" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
@@ -964,13 +985,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="68" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -984,11 +1005,38 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="181">
+  <cellStyles count="201">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -1078,6 +1126,16 @@
     <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -1167,6 +1225,16 @@
     <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
     <cellStyle name="Note" xfId="68" builtinId="10"/>
@@ -1471,10 +1539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="28" customHeight="1" x14ac:dyDescent="0"/>
@@ -1518,110 +1586,261 @@
       <c r="I1" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="J1" s="28" t="s">
+      <c r="J1" s="37" t="s">
         <v>23</v>
       </c>
       <c r="K1" s="7"/>
       <c r="L1" s="7"/>
     </row>
     <row r="2" spans="1:12" ht="28" customHeight="1">
-      <c r="D2" s="3"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="3"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="3"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="13"/>
     </row>
     <row r="3" spans="1:12" s="5" customFormat="1" ht="28" customHeight="1">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="6"/>
+      <c r="B3" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="31"/>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
     </row>
-    <row r="4" spans="1:12" s="27" customFormat="1" ht="56" customHeight="1">
-      <c r="A4" s="27" t="s">
+    <row r="4" spans="1:12" s="5" customFormat="1" ht="28" customHeight="1">
+      <c r="A4" s="31"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+    </row>
+    <row r="5" spans="1:12" s="7" customFormat="1" ht="22" customHeight="1">
+      <c r="A5" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="J5" s="31"/>
+    </row>
+    <row r="6" spans="1:12" s="7" customFormat="1" ht="22" customHeight="1">
+      <c r="A6" s="31"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+    </row>
+    <row r="7" spans="1:12" s="7" customFormat="1" ht="22" customHeight="1">
+      <c r="A7" s="31"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+    </row>
+    <row r="8" spans="1:12" s="7" customFormat="1" ht="22" customHeight="1">
+      <c r="A8" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="B8" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="31"/>
+    </row>
+    <row r="9" spans="1:12" s="7" customFormat="1" ht="22" customHeight="1">
+      <c r="A9" s="31"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+    </row>
+    <row r="10" spans="1:12" ht="28" customHeight="1">
+      <c r="A10" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="D4" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="27" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="28" customHeight="1">
-      <c r="A5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="28" customHeight="1">
-      <c r="A6" t="s">
-        <v>120</v>
-      </c>
-      <c r="B6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="28" customHeight="1">
-      <c r="A7" t="s">
-        <v>133</v>
-      </c>
-      <c r="B7" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="28" customHeight="1">
-      <c r="A8" t="s">
-        <v>136</v>
-      </c>
-      <c r="B8" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="28" customHeight="1">
-      <c r="A9" t="s">
-        <v>157</v>
-      </c>
-      <c r="B9" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="28" customHeight="1">
-      <c r="A10" s="22"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="22"/>
+      <c r="B10" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="13"/>
+    </row>
+    <row r="11" spans="1:12" ht="28" customHeight="1">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+    </row>
+    <row r="12" spans="1:12" ht="28" customHeight="1">
+      <c r="A12" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
     </row>
     <row r="13" spans="1:12" ht="28" customHeight="1">
-      <c r="A13" s="15"/>
-      <c r="D13" t="s">
-        <v>29</v>
-      </c>
-      <c r="G13" t="s">
-        <v>135</v>
-      </c>
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+    </row>
+    <row r="14" spans="1:12" ht="28" customHeight="1">
+      <c r="A14" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="B14" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="13"/>
+    </row>
+    <row r="15" spans="1:12" ht="28" customHeight="1">
+      <c r="A15" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="B15" s="39" t="s">
+        <v>130</v>
+      </c>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="13"/>
+    </row>
+    <row r="16" spans="1:12" ht="28" customHeight="1">
+      <c r="A16" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="B16" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="13"/>
+    </row>
+    <row r="17" spans="1:10" ht="28" customHeight="1">
+      <c r="A17" s="39" t="s">
+        <v>152</v>
+      </c>
+      <c r="B17" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="13"/>
+    </row>
+    <row r="18" spans="1:10" s="35" customFormat="1" ht="28" customHeight="1">
+      <c r="A18" s="7"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="7"/>
+    </row>
+    <row r="21" spans="1:10" ht="28" customHeight="1">
+      <c r="A21" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1635,6 +1854,208 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="7" max="7" width="45.83203125" customWidth="1"/>
+    <col min="11" max="11" width="19.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="8" customFormat="1" ht="27" customHeight="1">
+      <c r="A1" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="L1" s="7"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="24">
+      <c r="D4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="6" max="6" width="23.1640625" customWidth="1"/>
+    <col min="7" max="7" width="40.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="8" customFormat="1" ht="27" customHeight="1">
+      <c r="A1" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="L1" s="7"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="D3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F3" t="s">
+        <v>124</v>
+      </c>
+      <c r="G3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>122</v>
+      </c>
+      <c r="G4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="24">
+      <c r="D5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F5" t="s">
+        <v>125</v>
+      </c>
+      <c r="G5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" t="s">
+        <v>127</v>
+      </c>
+      <c r="G6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L4"/>
   <sheetViews>
@@ -1680,7 +2101,7 @@
         <v>23</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L1" s="7"/>
     </row>
@@ -1690,17 +2111,17 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="24">
-      <c r="D3" s="42" t="s">
-        <v>146</v>
-      </c>
-      <c r="E3" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="F3" s="43" t="s">
-        <v>92</v>
-      </c>
-      <c r="G3" s="43" t="s">
-        <v>144</v>
+      <c r="D3" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1719,7 +2140,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L8"/>
   <sheetViews>
@@ -1764,7 +2185,7 @@
         <v>23</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L1" s="7"/>
     </row>
@@ -1775,57 +2196,57 @@
     </row>
     <row r="3" spans="1:12" ht="24">
       <c r="D3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F3" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="G3" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="24">
       <c r="D4" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F4" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="G4" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="24">
       <c r="D5" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F5" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="G5" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="24">
       <c r="D6" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F6" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="G6" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="24">
       <c r="D7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F7" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="G7" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1844,7 +2265,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -1975,221 +2396,221 @@
     </row>
     <row r="10" spans="1:3" ht="12.75" customHeight="1">
       <c r="A10" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="16" t="s">
         <v>80</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="12.75" customHeight="1">
       <c r="A11" s="16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="12.75" customHeight="1">
       <c r="A12" s="16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A13" s="40"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
+      <c r="A13" s="31"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
     </row>
     <row r="14" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A14" s="41" t="s">
+      <c r="A14" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A15" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A16" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="B16" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="B14" s="41" t="s">
+      <c r="C16" s="32" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A17" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="B17" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="C14" s="41" t="s">
+      <c r="C17" s="32" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A18" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="B18" s="32" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A15" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="B15" s="41" t="s">
+      <c r="C18" s="32" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A19" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="B19" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="C15" s="41" t="s">
+      <c r="C19" s="32" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A16" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="B16" s="41" t="s">
+    <row r="20" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A20" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="C16" s="41" t="s">
+      <c r="C20" s="32" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A17" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="B17" s="41" t="s">
+    <row r="21" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A21" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="C17" s="41" t="s">
+      <c r="C21" s="32" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A18" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="B18" s="41" t="s">
+    <row r="22" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A22" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="B22" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="C18" s="41" t="s">
+      <c r="C22" s="32" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A19" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="B19" s="41" t="s">
+    <row r="23" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A23" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="B23" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="C19" s="41" t="s">
+      <c r="C23" s="32" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A20" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="B20" s="41" t="s">
-        <v>107</v>
-      </c>
-      <c r="C20" s="41" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A21" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="B21" s="41" t="s">
-        <v>108</v>
-      </c>
-      <c r="C21" s="41" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A22" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="B22" s="41" t="s">
-        <v>109</v>
-      </c>
-      <c r="C22" s="41" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A23" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="B23" s="41" t="s">
-        <v>110</v>
-      </c>
-      <c r="C23" s="41" t="s">
-        <v>119</v>
-      </c>
-    </row>
     <row r="24" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A24" s="40"/>
-      <c r="B24" s="40"/>
-      <c r="C24" s="40"/>
+      <c r="A24" s="31"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
     </row>
     <row r="25" spans="1:3" ht="12.75" customHeight="1">
       <c r="A25" s="16" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B25" s="16">
         <v>1</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="12.75" customHeight="1">
       <c r="A26" s="16" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B26" s="16">
         <v>2</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="12.75" customHeight="1">
       <c r="A27" s="16" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B27" s="16">
         <v>3</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="12.75" customHeight="1">
       <c r="A28" s="16" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B28" s="16">
         <v>4</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="12.75" customHeight="1">
       <c r="A29" s="16" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B29" s="16">
         <v>5</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="12.75" customHeight="1">
       <c r="A30" s="16" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B30" s="16">
         <v>6</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -2205,10 +2626,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -2271,50 +2692,66 @@
     </row>
     <row r="8" spans="1:3" ht="12.75" customHeight="1">
       <c r="A8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="12.75" customHeight="1">
       <c r="A9" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="C9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A10" t="s">
-        <v>88</v>
-      </c>
-      <c r="C10" t="s">
-        <v>89</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="12.75" customHeight="1">
       <c r="A11" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="C11" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="12.75" customHeight="1">
       <c r="A12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C12" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A14" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A17" t="s">
         <v>92</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C17" t="s">
         <v>93</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A13" t="s">
-        <v>94</v>
-      </c>
-      <c r="C13" t="s">
-        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2330,10 +2767,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -2348,32 +2785,32 @@
     <col min="9" max="9" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="37" customFormat="1">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:9" s="28" customFormat="1">
+      <c r="A1" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="G1" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="39" t="s">
+      <c r="H1" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="37" t="s">
+      <c r="I1" s="28" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2385,64 +2822,109 @@
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
     </row>
-    <row r="3" spans="1:9" ht="36">
-      <c r="B3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C3" t="s">
+    <row r="4" spans="1:9">
+      <c r="B4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="G3" s="4" t="s">
+      <c r="H4" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="I3" s="4" t="s">
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-    </row>
-    <row r="7" spans="1:9" s="6" customFormat="1">
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
+      <c r="G5" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="B6" t="s">
+        <v>175</v>
+      </c>
+      <c r="C6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" t="s">
+        <v>169</v>
+      </c>
+      <c r="E6" t="s">
+        <v>169</v>
+      </c>
+      <c r="F6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="I6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="6" customFormat="1">
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
     </row>
     <row r="9" spans="1:9">
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
       <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="I10" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2457,135 +2939,192 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="220" workbookViewId="0">
+      <selection activeCell="B21" sqref="A21:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="29.1640625" customWidth="1"/>
     <col min="2" max="2" width="18.83203125" customWidth="1"/>
+    <col min="3" max="3" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="38" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" t="s">
+      <c r="A2" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="39" t="s">
         <v>3</v>
       </c>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B3" t="s">
-        <v>159</v>
-      </c>
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="A4" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="31"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" s="39" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="15" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>128</v>
-      </c>
-      <c r="B6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>126</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="B9" s="15" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>129</v>
-      </c>
-      <c r="B8" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>131</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="B11" s="15" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>92</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="B13" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="15" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>147</v>
-      </c>
-      <c r="B13" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>149</v>
-      </c>
-      <c r="B14" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>151</v>
-      </c>
-      <c r="B15" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>153</v>
-      </c>
-      <c r="B16" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>155</v>
-      </c>
-      <c r="B17" t="s">
-        <v>124</v>
-      </c>
+      <c r="B17" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2600,10 +3139,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="24.33203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -2754,17 +3293,6 @@
       <c r="G7" s="21"/>
       <c r="H7" s="21"/>
       <c r="I7" s="14"/>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="24"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2779,10 +3307,137 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:K12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="5" max="5" width="21.33203125" customWidth="1"/>
+    <col min="6" max="6" width="23" customWidth="1"/>
+    <col min="7" max="7" width="23.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="36">
+      <c r="A1" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="48">
+      <c r="A2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="24">
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" t="s">
+        <v>83</v>
+      </c>
+      <c r="G8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="D9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" t="s">
+        <v>81</v>
+      </c>
+      <c r="G9" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="36" t="s">
+        <v>166</v>
+      </c>
+      <c r="G10" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0"/>
@@ -2833,111 +3488,142 @@
         <v>23</v>
       </c>
       <c r="K1" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="L1" s="7"/>
+    </row>
+    <row r="2" spans="1:12" s="8" customFormat="1" ht="15" customHeight="1">
+      <c r="A2"/>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2" s="7"/>
+    </row>
+    <row r="3" spans="1:12" s="4" customFormat="1" ht="33" customHeight="1">
+      <c r="A3" s="23"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="F3" s="23"/>
+      <c r="G3" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="L1" s="7"/>
-    </row>
-    <row r="2" spans="1:12" s="8" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="7"/>
-      <c r="B2" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-    </row>
-    <row r="3" spans="1:12" s="4" customFormat="1" ht="33" customHeight="1">
-      <c r="A3"/>
-      <c r="D3" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="I3"/>
-      <c r="J3"/>
-      <c r="K3"/>
       <c r="L3"/>
     </row>
     <row r="4" spans="1:12" customFormat="1" ht="33" customHeight="1">
-      <c r="A4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C4" s="7"/>
-      <c r="D4" t="s">
-        <v>159</v>
-      </c>
-      <c r="E4" t="s">
-        <v>80</v>
-      </c>
-      <c r="F4" t="s">
-        <v>87</v>
-      </c>
-      <c r="G4" t="s">
-        <v>97</v>
-      </c>
+      <c r="A4" s="7"/>
+      <c r="B4" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
     </row>
     <row r="5" spans="1:12" customFormat="1" ht="33" customHeight="1">
-      <c r="B5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="7"/>
+      <c r="A5" s="23"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
     </row>
     <row r="6" spans="1:12" customFormat="1" ht="33" customHeight="1">
-      <c r="B6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="7"/>
-    </row>
-    <row r="7" spans="1:12" s="32" customFormat="1" ht="27" customHeight="1">
-      <c r="D7" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="E7" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="G7" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="K7" s="33" t="s">
-        <v>70</v>
-      </c>
+      <c r="A6" s="23"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+    </row>
+    <row r="7" spans="1:12" s="23" customFormat="1" ht="27" customHeight="1">
+      <c r="B7" s="4"/>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:12" s="9" customFormat="1" ht="17" customHeight="1">
       <c r="A8" s="7"/>
-      <c r="B8" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="33"/>
+      <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
     </row>
-    <row r="9" spans="1:12" s="32" customFormat="1" ht="27" customHeight="1">
-      <c r="B9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="G9" s="33"/>
-    </row>
-    <row r="10" spans="1:12" s="32" customFormat="1" ht="27" customHeight="1">
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-    </row>
-    <row r="11" spans="1:12" s="32" customFormat="1" ht="27" customHeight="1">
-      <c r="B11" s="4"/>
-      <c r="C11"/>
-      <c r="D11"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
+    <row r="9" spans="1:12" s="23" customFormat="1" ht="27" customHeight="1">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+    </row>
+    <row r="10" spans="1:12" s="23" customFormat="1" ht="27" customHeight="1">
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="G10" s="24"/>
+    </row>
+    <row r="11" spans="1:12" s="23" customFormat="1" ht="27" customHeight="1">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
     </row>
     <row r="12" spans="1:12" s="9" customFormat="1" ht="27" customHeight="1">
       <c r="A12" s="7"/>
@@ -2945,38 +3631,28 @@
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
+      <c r="F12" s="25"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
     </row>
-    <row r="14" spans="1:12" s="32" customFormat="1" ht="27" customHeight="1">
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="G14" s="33"/>
-    </row>
-    <row r="15" spans="1:12" ht="27" customHeight="1">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-    </row>
-    <row r="16" spans="1:12" ht="27" customHeight="1">
-      <c r="F16" s="34"/>
-    </row>
-    <row r="17" spans="6:6" ht="27" customHeight="1">
-      <c r="F17" s="34"/>
+    <row r="13" spans="1:12" ht="27" customHeight="1">
+      <c r="F13" s="25"/>
+    </row>
+    <row r="14" spans="1:12" s="23" customFormat="1" ht="27" customHeight="1">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2989,20 +3665,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="7" max="7" width="45.83203125" customWidth="1"/>
-    <col min="11" max="11" width="19.5" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.5" customWidth="1"/>
+    <col min="6" max="6" width="19.1640625" customWidth="1"/>
+    <col min="7" max="7" width="33.33203125" customWidth="1"/>
+    <col min="8" max="8" width="14.83203125" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" customWidth="1"/>
+    <col min="10" max="10" width="16.5" customWidth="1"/>
+    <col min="11" max="11" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="8" customFormat="1" ht="27" customHeight="1">
@@ -3037,146 +3720,55 @@
         <v>23</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L1" s="7"/>
     </row>
-    <row r="2" spans="1:12">
-      <c r="B2" t="s">
+    <row r="2" spans="1:12" s="8" customFormat="1" ht="27" customHeight="1">
+      <c r="A2" s="7"/>
+      <c r="B2" s="8" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="24">
-      <c r="D4" t="s">
-        <v>122</v>
-      </c>
-      <c r="E4" t="s">
-        <v>99</v>
-      </c>
-      <c r="F4" t="s">
-        <v>88</v>
-      </c>
-      <c r="G4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="B5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="6" max="6" width="23.1640625" customWidth="1"/>
-    <col min="7" max="7" width="40.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" s="8" customFormat="1" ht="27" customHeight="1">
-      <c r="A1" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="L1" s="7"/>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="B2" t="s">
-        <v>36</v>
-      </c>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="D3" t="s">
-        <v>124</v>
-      </c>
-      <c r="F3" t="s">
-        <v>128</v>
-      </c>
-      <c r="G3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" t="s">
-        <v>126</v>
-      </c>
-      <c r="G4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="24">
-      <c r="D5" t="s">
-        <v>124</v>
-      </c>
-      <c r="F5" t="s">
-        <v>129</v>
-      </c>
-      <c r="G5" t="s">
-        <v>130</v>
-      </c>
+      <c r="D3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="68" customHeight="1">
+      <c r="D4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="31" customHeight="1">
+      <c r="D5" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="D6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" t="s">
-        <v>131</v>
-      </c>
-      <c r="G6" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="B7" t="s">
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="B12" t="s">
         <v>37</v>
       </c>
     </row>

--- a/cohesionAndConflict_odkx/app/config/tables/household_census/forms/household_census/household_census.xlsx
+++ b/cohesionAndConflict_odkx/app/config/tables/household_census/forms/household_census/household_census.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2840" yWindow="2600" windowWidth="27540" windowHeight="15820" tabRatio="617" activeTab="8"/>
+    <workbookView xWindow="3380" yWindow="2000" windowWidth="27540" windowHeight="16060" tabRatio="617" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="177">
   <si>
     <t>type</t>
   </si>
@@ -560,6 +560,9 @@
   </si>
   <si>
     <t>linked_marriages</t>
+  </si>
+  <si>
+    <t>{ household_id : data('household_id'), lives_in_household : 'yes' }</t>
   </si>
 </sst>
 </file>
@@ -719,7 +722,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="201">
+  <cellStyleXfs count="203">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -789,6 +792,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1036,7 +1041,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="201">
+  <cellStyles count="203">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -1136,6 +1141,7 @@
     <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -1235,6 +1241,7 @@
     <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
     <cellStyle name="Note" xfId="68" builtinId="10"/>
@@ -2769,8 +2776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -2822,7 +2829,7 @@
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" ht="24">
       <c r="B4" t="s">
         <v>76</v>
       </c>
@@ -2842,7 +2849,7 @@
         <v>65</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>66</v>
@@ -3669,7 +3676,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>

--- a/cohesionAndConflict_odkx/app/config/tables/household_census/forms/household_census/household_census.xlsx
+++ b/cohesionAndConflict_odkx/app/config/tables/household_census/forms/household_census/household_census.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3380" yWindow="2000" windowWidth="27540" windowHeight="16060" tabRatio="617" activeTab="3"/>
+    <workbookView xWindow="3120" yWindow="2640" windowWidth="27540" windowHeight="16060" tabRatio="617"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -16,11 +16,12 @@
     <sheet name="customary_membership" sheetId="18" r:id="rId7"/>
     <sheet name="members" sheetId="7" r:id="rId8"/>
     <sheet name="marriages" sheetId="19" r:id="rId9"/>
-    <sheet name="asset_wealth" sheetId="14" r:id="rId10"/>
-    <sheet name="income" sheetId="15" r:id="rId11"/>
-    <sheet name="food_security" sheetId="16" r:id="rId12"/>
-    <sheet name="crops_fishing" sheetId="17" r:id="rId13"/>
-    <sheet name="calculates" sheetId="10" r:id="rId14"/>
+    <sheet name="families" sheetId="20" r:id="rId10"/>
+    <sheet name="asset_wealth" sheetId="14" r:id="rId11"/>
+    <sheet name="income" sheetId="15" r:id="rId12"/>
+    <sheet name="food_security" sheetId="16" r:id="rId13"/>
+    <sheet name="crops_fishing" sheetId="17" r:id="rId14"/>
+    <sheet name="calculates" sheetId="10" r:id="rId15"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="183">
   <si>
     <t>type</t>
   </si>
@@ -563,6 +564,24 @@
   </si>
   <si>
     <t>{ household_id : data('household_id'), lives_in_household : 'yes' }</t>
+  </si>
+  <si>
+    <t>Family units Information:</t>
+  </si>
+  <si>
+    <t>linked_families</t>
+  </si>
+  <si>
+    <t>families</t>
+  </si>
+  <si>
+    <t>Family unit information</t>
+  </si>
+  <si>
+    <t>Family edgelist creation</t>
+  </si>
+  <si>
+    <t>do section families</t>
   </si>
 </sst>
 </file>
@@ -722,7 +741,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="203">
+  <cellStyleXfs count="209">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -792,6 +811,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1041,7 +1066,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="203">
+  <cellStyles count="209">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -1142,6 +1167,9 @@
     <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="208" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -1242,6 +1270,9 @@
     <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="207" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
     <cellStyle name="Note" xfId="68" builtinId="10"/>
@@ -1546,10 +1577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="28" customHeight="1" x14ac:dyDescent="0"/>
@@ -1772,43 +1803,39 @@
       <c r="J13" s="13"/>
     </row>
     <row r="14" spans="1:12" ht="28" customHeight="1">
-      <c r="A14" s="39" t="s">
-        <v>116</v>
-      </c>
-      <c r="B14" s="39" t="s">
-        <v>117</v>
-      </c>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
+      <c r="A14" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
       <c r="J14" s="13"/>
     </row>
     <row r="15" spans="1:12" ht="28" customHeight="1">
-      <c r="A15" s="39" t="s">
-        <v>129</v>
-      </c>
-      <c r="B15" s="39" t="s">
-        <v>130</v>
-      </c>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
       <c r="J15" s="13"/>
     </row>
     <row r="16" spans="1:12" ht="28" customHeight="1">
       <c r="A16" s="39" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="B16" s="39" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="C16" s="39"/>
       <c r="D16" s="39"/>
@@ -1821,10 +1848,10 @@
     </row>
     <row r="17" spans="1:10" ht="28" customHeight="1">
       <c r="A17" s="39" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="B17" s="39" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="C17" s="39"/>
       <c r="D17" s="39"/>
@@ -1835,19 +1862,51 @@
       <c r="I17" s="39"/>
       <c r="J17" s="13"/>
     </row>
-    <row r="18" spans="1:10" s="35" customFormat="1" ht="28" customHeight="1">
-      <c r="A18" s="7"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="7"/>
-    </row>
-    <row r="21" spans="1:10" ht="28" customHeight="1">
-      <c r="A21" s="7"/>
+    <row r="18" spans="1:10" ht="28" customHeight="1">
+      <c r="A18" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="B18" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="13"/>
+    </row>
+    <row r="19" spans="1:10" ht="28" customHeight="1">
+      <c r="A19" s="39" t="s">
+        <v>152</v>
+      </c>
+      <c r="B19" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="13"/>
+    </row>
+    <row r="20" spans="1:10" s="35" customFormat="1" ht="28" customHeight="1">
+      <c r="A20" s="7"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="7"/>
+    </row>
+    <row r="23" spans="1:10" ht="28" customHeight="1">
+      <c r="A23" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1861,6 +1920,116 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="5" max="5" width="14.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="36">
+      <c r="A1" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="L1" s="7"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="7"/>
+      <c r="B2" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+    </row>
+    <row r="3" spans="1:12" ht="24">
+      <c r="D3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="72">
+      <c r="D4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="D5" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="B6" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="45"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L5"/>
   <sheetViews>
@@ -1947,7 +2116,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L7"/>
   <sheetViews>
@@ -2062,7 +2231,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L4"/>
   <sheetViews>
@@ -2147,7 +2316,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L8"/>
   <sheetViews>
@@ -2272,7 +2441,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -2633,10 +2802,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -2729,35 +2898,43 @@
         <v>170</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A14" t="s">
-        <v>86</v>
-      </c>
-      <c r="C14" t="s">
-        <v>87</v>
+    <row r="13" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A13" t="s">
+        <v>179</v>
+      </c>
+      <c r="C13" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="12.75" customHeight="1">
       <c r="A15" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="12.75" customHeight="1">
       <c r="A16" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C16" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="12.75" customHeight="1">
       <c r="A17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A18" t="s">
         <v>92</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2776,8 +2953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -2907,6 +3084,32 @@
         <v>168</v>
       </c>
       <c r="I6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="B7" t="s">
+        <v>178</v>
+      </c>
+      <c r="C7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" t="s">
+        <v>179</v>
+      </c>
+      <c r="E7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="I7" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3677,7 +3880,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>

--- a/cohesionAndConflict_odkx/app/config/tables/household_census/forms/household_census/household_census.xlsx
+++ b/cohesionAndConflict_odkx/app/config/tables/household_census/forms/household_census/household_census.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="2640" windowWidth="27540" windowHeight="16060" tabRatio="617"/>
+    <workbookView xWindow="1140" yWindow="220" windowWidth="27540" windowHeight="16060" tabRatio="617" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,6 @@
     <sheet name="income" sheetId="15" r:id="rId12"/>
     <sheet name="food_security" sheetId="16" r:id="rId13"/>
     <sheet name="crops_fishing" sheetId="17" r:id="rId14"/>
-    <sheet name="calculates" sheetId="10" r:id="rId15"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="181">
   <si>
     <t>type</t>
   </si>
@@ -161,9 +160,6 @@
     <t>assign</t>
   </si>
   <si>
-    <t>calculation_name</t>
-  </si>
-  <si>
     <t>calculation</t>
   </si>
   <si>
@@ -221,9 +217,6 @@
     <t>generate household ID</t>
   </si>
   <si>
-    <t>household members</t>
-  </si>
-  <si>
     <t>data('household_human_id') + '_' + data('household_village') + '_' + data('location.longitude') + '-' + data('location.latitude')</t>
   </si>
   <si>
@@ -269,27 +262,15 @@
     <t>household_member</t>
   </si>
   <si>
-    <t>custom_member_choices</t>
-  </si>
-  <si>
     <t>tokatoka</t>
   </si>
   <si>
-    <t>Tokatoka</t>
-  </si>
-  <si>
     <t>mataqali</t>
   </si>
   <si>
-    <t>Mataqali</t>
-  </si>
-  <si>
     <t>yavusa</t>
   </si>
   <si>
-    <t>Yavusa</t>
-  </si>
-  <si>
     <t>customary_membership</t>
   </si>
   <si>
@@ -554,9 +535,6 @@
     <t>Something here describing what I want them to tell me about:</t>
   </si>
   <si>
-    <t>Marriages</t>
-  </si>
-  <si>
     <t>do section marriages</t>
   </si>
   <si>
@@ -582,6 +560,21 @@
   </si>
   <si>
     <t>do section families</t>
+  </si>
+  <si>
+    <t>Marriage edgelist creation</t>
+  </si>
+  <si>
+    <t>Person node creation</t>
+  </si>
+  <si>
+    <t>Household node creation::</t>
+  </si>
+  <si>
+    <t>Household node attributes</t>
+  </si>
+  <si>
+    <t>household member</t>
   </si>
 </sst>
 </file>
@@ -669,18 +662,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
-        <bgColor rgb="FF000000"/>
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
+        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -728,10 +721,49 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -740,8 +772,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="209">
+  <cellStyleXfs count="215">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -951,14 +1003,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -975,13 +1030,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="68" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="68" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="68" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1005,9 +1053,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
@@ -1032,41 +1077,109 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="68" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="68" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="68" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="209">
+  <cellStyles count="215">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -1170,6 +1283,9 @@
     <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="214" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -1273,6 +1389,9 @@
     <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="205" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="213" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
     <cellStyle name="Note" xfId="68" builtinId="10"/>
@@ -1577,10 +1696,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="28" customHeight="1" x14ac:dyDescent="0"/>
@@ -1596,317 +1715,309 @@
     <col min="10" max="10" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="8" customFormat="1" ht="28" customHeight="1">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:12" s="5" customFormat="1" ht="28" customHeight="1">
+      <c r="A1" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="J1" s="37" t="s">
+      <c r="I1" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
     </row>
     <row r="2" spans="1:12" ht="28" customHeight="1">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="13"/>
-    </row>
-    <row r="3" spans="1:12" s="5" customFormat="1" ht="28" customHeight="1">
-      <c r="A3" s="39" t="s">
+      <c r="A2" s="48" t="s">
+        <v>178</v>
+      </c>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="48"/>
+    </row>
+    <row r="3" spans="1:12" s="2" customFormat="1" ht="28" customHeight="1">
+      <c r="A3" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+    </row>
+    <row r="4" spans="1:12" s="2" customFormat="1" ht="28" customHeight="1">
+      <c r="A4" s="46"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" s="4" customFormat="1" ht="22" customHeight="1">
+      <c r="A5" s="49" t="s">
+        <v>149</v>
+      </c>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="43" t="s">
-        <v>72</v>
-      </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-    </row>
-    <row r="4" spans="1:12" s="5" customFormat="1" ht="28" customHeight="1">
-      <c r="A4" s="31"/>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-    </row>
-    <row r="5" spans="1:12" s="7" customFormat="1" ht="22" customHeight="1">
-      <c r="A5" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="J5" s="31"/>
-    </row>
-    <row r="6" spans="1:12" s="7" customFormat="1" ht="22" customHeight="1">
-      <c r="A6" s="31"/>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-    </row>
-    <row r="7" spans="1:12" s="7" customFormat="1" ht="22" customHeight="1">
-      <c r="A7" s="31"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-    </row>
-    <row r="8" spans="1:12" s="7" customFormat="1" ht="22" customHeight="1">
-      <c r="A8" s="39" t="s">
-        <v>158</v>
-      </c>
-      <c r="B8" s="39" t="s">
-        <v>159</v>
-      </c>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="31"/>
-    </row>
-    <row r="9" spans="1:12" s="7" customFormat="1" ht="22" customHeight="1">
-      <c r="A9" s="31"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
+      <c r="J5" s="50"/>
+    </row>
+    <row r="6" spans="1:12" s="4" customFormat="1" ht="22" customHeight="1">
+      <c r="A6" s="58"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
+    </row>
+    <row r="7" spans="1:12" s="4" customFormat="1" ht="22" customHeight="1">
+      <c r="A7" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="24"/>
+    </row>
+    <row r="8" spans="1:12" s="4" customFormat="1" ht="22" customHeight="1">
+      <c r="A8" s="46"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+    </row>
+    <row r="9" spans="1:12" ht="28" customHeight="1">
+      <c r="A9" s="52" t="s">
+        <v>177</v>
+      </c>
+      <c r="B9" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="54"/>
     </row>
     <row r="10" spans="1:12" ht="28" customHeight="1">
-      <c r="A10" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="13"/>
+      <c r="A10" s="48"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="48"/>
     </row>
     <row r="11" spans="1:12" ht="28" customHeight="1">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
+      <c r="A11" s="55" t="s">
+        <v>176</v>
+      </c>
+      <c r="B11" s="51" t="s">
+        <v>167</v>
+      </c>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="54"/>
     </row>
     <row r="12" spans="1:12" ht="28" customHeight="1">
-      <c r="A12" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="B12" s="13" t="s">
+      <c r="A12" s="48"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="48"/>
+    </row>
+    <row r="13" spans="1:12" ht="28" customHeight="1">
+      <c r="A13" s="52" t="s">
         <v>174</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-    </row>
-    <row r="13" spans="1:12" ht="28" customHeight="1">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
+      <c r="B13" s="53" t="s">
+        <v>175</v>
+      </c>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="54"/>
     </row>
     <row r="14" spans="1:12" ht="28" customHeight="1">
-      <c r="A14" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
+      <c r="A14" s="48" t="s">
+        <v>179</v>
+      </c>
+      <c r="B14" s="48"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="48"/>
     </row>
     <row r="15" spans="1:12" ht="28" customHeight="1">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
+      <c r="A15" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="B15" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="56"/>
     </row>
     <row r="16" spans="1:12" ht="28" customHeight="1">
-      <c r="A16" s="39" t="s">
-        <v>116</v>
-      </c>
-      <c r="B16" s="39" t="s">
-        <v>117</v>
-      </c>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="13"/>
+      <c r="A16" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="7"/>
     </row>
     <row r="17" spans="1:10" ht="28" customHeight="1">
-      <c r="A17" s="39" t="s">
-        <v>129</v>
-      </c>
-      <c r="B17" s="39" t="s">
-        <v>130</v>
-      </c>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="13"/>
+      <c r="A17" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="7"/>
     </row>
     <row r="18" spans="1:10" ht="28" customHeight="1">
-      <c r="A18" s="39" t="s">
-        <v>131</v>
-      </c>
-      <c r="B18" s="39" t="s">
-        <v>140</v>
-      </c>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="13"/>
-    </row>
-    <row r="19" spans="1:10" ht="28" customHeight="1">
-      <c r="A19" s="39" t="s">
-        <v>152</v>
-      </c>
-      <c r="B19" s="39" t="s">
-        <v>153</v>
-      </c>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="13"/>
-    </row>
-    <row r="20" spans="1:10" s="35" customFormat="1" ht="28" customHeight="1">
-      <c r="A20" s="7"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="7"/>
-    </row>
-    <row r="23" spans="1:10" ht="28" customHeight="1">
-      <c r="A23" s="7"/>
+      <c r="A18" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="B18" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="7"/>
+    </row>
+    <row r="19" spans="1:10" s="26" customFormat="1" ht="28" customHeight="1">
+      <c r="A19" s="4"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="4"/>
+    </row>
+    <row r="22" spans="1:10" ht="28" customHeight="1">
+      <c r="A22" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1924,100 +2035,124 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
     <col min="5" max="5" width="14.6640625" customWidth="1"/>
+    <col min="7" max="7" width="32" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="36">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="J1" s="7" t="s">
+      <c r="I1" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="L1" s="7"/>
+      <c r="K1" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L1" s="4"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="7"/>
-      <c r="B2" s="8" t="s">
+      <c r="A2" s="24"/>
+      <c r="B2" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-    </row>
-    <row r="3" spans="1:12" ht="24">
-      <c r="D3" s="4" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="72">
-      <c r="D4" s="4" t="s">
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67" t="s">
+        <v>170</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+    </row>
+    <row r="4" spans="1:12" ht="74" customHeight="1">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4" t="s">
-        <v>172</v>
-      </c>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67" t="s">
+        <v>166</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="D5" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="G5" s="4"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="67" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" s="67" t="s">
+        <v>171</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="B6" s="45" t="s">
+      <c r="A6" s="7"/>
+      <c r="B6" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="45"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2034,7 +2169,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -2045,65 +2180,95 @@
     <col min="11" max="11" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="8" customFormat="1" ht="27" customHeight="1">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:12" s="5" customFormat="1" ht="27" customHeight="1">
+      <c r="A1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="J1" s="7" t="s">
+      <c r="I1" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="L1" s="7"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="B2" t="s">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7" t="s">
         <v>36</v>
       </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
     </row>
     <row r="4" spans="1:12" ht="24">
-      <c r="D4" t="s">
-        <v>118</v>
-      </c>
-      <c r="E4" t="s">
-        <v>95</v>
-      </c>
-      <c r="F4" t="s">
-        <v>86</v>
-      </c>
-      <c r="G4" t="s">
-        <v>119</v>
-      </c>
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="B5" t="s">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7" t="s">
         <v>37</v>
       </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2121,7 +2286,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -2130,95 +2295,133 @@
     <col min="7" max="7" width="40.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="8" customFormat="1" ht="27" customHeight="1">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:12" s="5" customFormat="1" ht="27" customHeight="1">
+      <c r="A1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="J1" s="7" t="s">
+      <c r="I1" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="L1" s="7"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="B2" t="s">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7" t="s">
         <v>36</v>
       </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="D3" t="s">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+    </row>
+    <row r="5" spans="1:12" ht="24">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="F3" t="s">
-        <v>124</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="G6" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="G4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="24">
-      <c r="D5" t="s">
-        <v>120</v>
-      </c>
-      <c r="F5" t="s">
-        <v>125</v>
-      </c>
-      <c r="G5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="D6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" t="s">
-        <v>127</v>
-      </c>
-      <c r="G6" t="s">
-        <v>128</v>
-      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="B7" t="s">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7" t="s">
         <v>37</v>
       </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2236,7 +2439,7 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -2245,65 +2448,84 @@
     <col min="7" max="7" width="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="8" customFormat="1" ht="27" customHeight="1">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:12" s="5" customFormat="1" ht="27" customHeight="1">
+      <c r="A1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="J1" s="7" t="s">
+      <c r="I1" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="L1" s="7"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="B2" t="s">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="24">
-      <c r="D3" s="33" t="s">
-        <v>141</v>
-      </c>
-      <c r="E3" s="34" t="s">
-        <v>132</v>
-      </c>
-      <c r="F3" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="G3" s="34" t="s">
-        <v>139</v>
-      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" spans="1:12" ht="34" customHeight="1">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="G3" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="B4" t="s">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7" t="s">
         <v>37</v>
       </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2321,7 +2543,7 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6:F7"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.33203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -2329,142 +2551,153 @@
     <col min="7" max="7" width="42.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="8" customFormat="1" ht="27" customHeight="1">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:12" s="5" customFormat="1" ht="27" customHeight="1">
+      <c r="A1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="J1" s="7" t="s">
+      <c r="I1" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="L1" s="7"/>
+      <c r="K1" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L1" s="4"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="B2" t="s">
+      <c r="A2" s="68"/>
+      <c r="B2" s="68" t="s">
         <v>36</v>
       </c>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
     </row>
     <row r="3" spans="1:12" ht="24">
-      <c r="D3" t="s">
-        <v>120</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+    </row>
+    <row r="4" spans="1:12" ht="24">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+    </row>
+    <row r="5" spans="1:12" ht="24">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+    </row>
+    <row r="6" spans="1:12" ht="24">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G6" s="9" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="24">
-      <c r="D4" t="s">
-        <v>120</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+    </row>
+    <row r="7" spans="1:12" ht="24">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G7" s="9" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="24">
-      <c r="D5" t="s">
-        <v>120</v>
-      </c>
-      <c r="F5" t="s">
-        <v>146</v>
-      </c>
-      <c r="G5" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="24">
-      <c r="D6" t="s">
-        <v>120</v>
-      </c>
-      <c r="F6" t="s">
-        <v>148</v>
-      </c>
-      <c r="G6" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="24">
-      <c r="D7" t="s">
-        <v>120</v>
-      </c>
-      <c r="F7" t="s">
-        <v>150</v>
-      </c>
-      <c r="G7" t="s">
-        <v>151</v>
-      </c>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="B8" t="s">
+      <c r="A8" s="68"/>
+      <c r="B8" s="68" t="s">
         <v>37</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="25.1640625" customWidth="1"/>
-    <col min="2" max="2" width="53.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="38" customHeight="1"/>
-    <row r="3" spans="1:2" ht="38" customHeight="1"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="68"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -2478,315 +2711,277 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="A21" activeCellId="2" sqref="A5:C8 A10:C19 A21:C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="17.5" style="13" customWidth="1"/>
-    <col min="2" max="2" width="18.1640625" style="13" customWidth="1"/>
-    <col min="3" max="3" width="54.1640625" style="13" customWidth="1"/>
-    <col min="4" max="4" width="29.83203125" style="7" customWidth="1"/>
-    <col min="5" max="16384" width="11.5" style="7"/>
+    <col min="1" max="1" width="17.5" style="26" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" style="26" customWidth="1"/>
+    <col min="3" max="3" width="54.1640625" style="26" customWidth="1"/>
+    <col min="4" max="4" width="29.83203125" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="11.5" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="11" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="12" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A5" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" s="15" t="s">
+      <c r="A5" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A6" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A6" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" s="15" t="s">
+      <c r="C6" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="15" t="s">
+    </row>
+    <row r="7" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A7" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A7" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="B7" s="15" t="s">
+      <c r="C7" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="15" t="s">
+    </row>
+    <row r="8" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A8" s="9" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A8" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="15" t="s">
-        <v>54</v>
-      </c>
     </row>
     <row r="10" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A10" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>80</v>
+      <c r="A10" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A11" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>82</v>
+      <c r="A11" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A12" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>84</v>
+      <c r="A12" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A13" s="31"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
+      <c r="A13" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="14" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="B14" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="B14" s="32" t="s">
+      <c r="C14" s="25" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A15" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="B15" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="C14" s="32" t="s">
+      <c r="C15" s="25" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A16" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="B16" s="25" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A15" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="B15" s="32" t="s">
+      <c r="C16" s="25" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A17" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="B17" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="C15" s="32" t="s">
+      <c r="C17" s="25" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A16" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="B16" s="32" t="s">
+    <row r="18" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A18" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="B18" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="C16" s="32" t="s">
+      <c r="C18" s="25" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A17" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="B17" s="32" t="s">
+    <row r="19" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A19" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="C17" s="32" t="s">
+      <c r="C19" s="25" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A18" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="B18" s="32" t="s">
-        <v>101</v>
-      </c>
-      <c r="C18" s="32" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A19" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="B19" s="32" t="s">
-        <v>102</v>
-      </c>
-      <c r="C19" s="32" t="s">
-        <v>111</v>
-      </c>
-    </row>
     <row r="20" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A20" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="B20" s="32" t="s">
-        <v>103</v>
-      </c>
-      <c r="C20" s="32" t="s">
-        <v>112</v>
-      </c>
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
     </row>
     <row r="21" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A21" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="B21" s="32" t="s">
-        <v>104</v>
-      </c>
-      <c r="C21" s="32" t="s">
-        <v>113</v>
+      <c r="A21" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="B21" s="10">
+        <v>1</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A22" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="B22" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="C22" s="32" t="s">
-        <v>114</v>
+      <c r="A22" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="B22" s="10">
+        <v>2</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A23" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="B23" s="32" t="s">
-        <v>106</v>
-      </c>
-      <c r="C23" s="32" t="s">
-        <v>115</v>
+      <c r="A23" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="B23" s="10">
+        <v>3</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A24" s="31"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="31"/>
+      <c r="A24" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="B24" s="10">
+        <v>4</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="25" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="B25" s="10">
+        <v>5</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A26" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="B26" s="10">
+        <v>6</v>
+      </c>
+      <c r="C26" s="10" t="s">
         <v>132</v>
-      </c>
-      <c r="B25" s="16">
-        <v>1</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A26" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="B26" s="16">
-        <v>2</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A27" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="B27" s="16">
-        <v>3</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A28" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="B28" s="16">
-        <v>4</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A29" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="B29" s="16">
-        <v>5</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A30" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="B30" s="16">
-        <v>6</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -2805,7 +3000,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -2816,126 +3011,155 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18" customHeight="1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="33" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="18" customHeight="1">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>55</v>
-      </c>
+      <c r="B2" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="13"/>
     </row>
     <row r="3" spans="1:3" ht="18" customHeight="1">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="34">
         <v>2</v>
       </c>
+      <c r="C3" s="13"/>
     </row>
     <row r="4" spans="1:3" ht="18" customHeight="1">
-      <c r="A4" t="s">
+      <c r="A4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
-        <v>55</v>
-      </c>
+      <c r="B4" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="13"/>
     </row>
     <row r="5" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A5" t="s">
+      <c r="A5" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="13" t="s">
         <v>12</v>
       </c>
+      <c r="C5" s="13"/>
+    </row>
+    <row r="6" spans="1:3" ht="18" customHeight="1">
+      <c r="A6" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="38"/>
+      <c r="C6" s="39" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="7" spans="1:3" ht="18" customHeight="1">
-      <c r="A7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="A7" s="45"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="47"/>
     </row>
     <row r="8" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C8" t="s">
-        <v>70</v>
+      <c r="A8" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A9" t="s">
+      <c r="A9" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A10" s="48"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="48"/>
+    </row>
+    <row r="11" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A11" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="43"/>
+      <c r="C11" s="43" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A12" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A13" s="41" t="s">
+        <v>172</v>
+      </c>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A14" s="48"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="48"/>
+    </row>
+    <row r="15" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A15" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" s="44"/>
+      <c r="C15" s="44" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A16" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A17" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="C9" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C11" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A12" t="s">
-        <v>169</v>
-      </c>
-      <c r="C12" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A13" t="s">
-        <v>179</v>
-      </c>
-      <c r="C13" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A15" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A18" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="C15" t="s">
+      <c r="B18" s="10"/>
+      <c r="C18" s="10" t="s">
         <v>87</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A16" t="s">
-        <v>88</v>
-      </c>
-      <c r="C16" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A17" t="s">
-        <v>90</v>
-      </c>
-      <c r="C17" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A18" t="s">
-        <v>92</v>
-      </c>
-      <c r="C18" t="s">
-        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -2951,15 +3175,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" customWidth="1"/>
+    <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="23.33203125" customWidth="1"/>
     <col min="3" max="3" width="17.5" customWidth="1"/>
     <col min="4" max="4" width="22.83203125" customWidth="1"/>
@@ -2969,172 +3193,173 @@
     <col min="9" max="9" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="28" customFormat="1">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:9" s="21" customFormat="1">
+      <c r="A1" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="H1" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="I1" s="21" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-    </row>
-    <row r="4" spans="1:9" ht="24">
+    <row r="3" spans="1:9" ht="24">
+      <c r="A3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>151</v>
+      </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>150</v>
       </c>
       <c r="C4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="D4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="B5" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="C5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" t="s">
+        <v>163</v>
+      </c>
+      <c r="E5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="I5" t="s">
         <v>64</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="G5" s="4" t="s">
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" t="s">
+        <v>172</v>
+      </c>
+      <c r="E6" t="s">
+        <v>172</v>
+      </c>
+      <c r="F6" t="s">
         <v>65</v>
       </c>
-      <c r="H5" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="B6" t="s">
-        <v>175</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="G6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="I6" t="s">
         <v>64</v>
       </c>
-      <c r="D6" t="s">
-        <v>169</v>
-      </c>
-      <c r="E6" t="s">
-        <v>169</v>
-      </c>
-      <c r="F6" t="s">
-        <v>67</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="I6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="B7" t="s">
-        <v>178</v>
-      </c>
-      <c r="C7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D7" t="s">
-        <v>179</v>
-      </c>
-      <c r="E7" t="s">
-        <v>179</v>
-      </c>
-      <c r="F7" t="s">
-        <v>67</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="I7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" s="6" customFormat="1">
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
+    </row>
+    <row r="7" spans="1:9" s="3" customFormat="1">
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="I10" s="4"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="I9" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3152,7 +3377,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="220" workbookViewId="0">
-      <selection activeCell="B21" sqref="A21:B21"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -3163,178 +3388,178 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="28" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
+      <c r="A3" s="48"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
+      <c r="A4" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="53" t="s">
+        <v>148</v>
+      </c>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="31"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
+      <c r="A5" s="46"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="39" t="s">
-        <v>86</v>
-      </c>
-      <c r="B6" s="39" t="s">
+      <c r="A6" s="51" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="51" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="48"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="43" t="s">
         <v>118</v>
       </c>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
+      <c r="B8" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="B9" s="15" t="s">
+      <c r="A9" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B9" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
+      <c r="A10" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="B11" s="15" t="s">
+      <c r="A11" s="41" t="s">
+        <v>121</v>
+      </c>
+      <c r="B11" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
+      <c r="A12" s="48"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="39" t="s">
-        <v>90</v>
-      </c>
-      <c r="B13" s="39" t="s">
-        <v>141</v>
-      </c>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
+      <c r="A13" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="B13" s="51" t="s">
+        <v>135</v>
+      </c>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
+      <c r="A14" s="48"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="B15" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="B15" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="15" t="s">
+      <c r="B18" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="B16" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
+      <c r="B19" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3357,152 +3582,152 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="24.33203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:12" s="8" customFormat="1" ht="28" customHeight="1">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:12" s="5" customFormat="1" ht="28" customHeight="1">
+      <c r="A1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+    </row>
+    <row r="2" spans="1:12" s="2" customFormat="1" ht="28" customHeight="1">
+      <c r="A2" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="8"/>
+      <c r="J2"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+    </row>
+    <row r="3" spans="1:12" s="2" customFormat="1" ht="28" customHeight="1">
+      <c r="A3" s="8"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" s="15"/>
+      <c r="I3" s="8"/>
+      <c r="J3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+    </row>
+    <row r="4" spans="1:12" s="2" customFormat="1" ht="28" customHeight="1">
+      <c r="A4" s="8"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" s="15"/>
+      <c r="I4" s="8"/>
+      <c r="J4"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" s="2" customFormat="1" ht="28" customHeight="1">
+      <c r="A5" s="8"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="J1" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-    </row>
-    <row r="2" spans="1:12" s="5" customFormat="1" ht="28" customHeight="1">
-      <c r="A2" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="14"/>
-      <c r="J2"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-    </row>
-    <row r="3" spans="1:12" s="5" customFormat="1" ht="28" customHeight="1">
-      <c r="A3" s="14"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="H3" s="21"/>
-      <c r="I3" s="14"/>
-      <c r="J3"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-    </row>
-    <row r="4" spans="1:12" s="5" customFormat="1" ht="28" customHeight="1">
-      <c r="A4" s="14"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="21" t="s">
+      <c r="E5" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="H4" s="21"/>
-      <c r="I4" s="14"/>
-      <c r="J4"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-    </row>
-    <row r="5" spans="1:12" s="5" customFormat="1" ht="28" customHeight="1">
-      <c r="A5" s="14"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="G5" s="21" t="s">
+      <c r="H5" s="15"/>
+      <c r="I5" s="8"/>
+      <c r="J5"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+    </row>
+    <row r="6" spans="1:12" s="1" customFormat="1" ht="28" customHeight="1">
+      <c r="A6" s="8"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="H5" s="21"/>
-      <c r="I5" s="14"/>
-      <c r="J5"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-    </row>
-    <row r="6" spans="1:12" s="4" customFormat="1" ht="28" customHeight="1">
-      <c r="A6" s="14"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="H6" s="21"/>
-      <c r="I6" s="14"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="8"/>
       <c r="J6"/>
       <c r="K6"/>
       <c r="L6"/>
     </row>
     <row r="7" spans="1:12" ht="28" customHeight="1">
-      <c r="A7" s="14"/>
-      <c r="B7" s="21" t="s">
+      <c r="A7" s="8"/>
+      <c r="B7" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="14"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3517,10 +3742,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -3528,109 +3753,165 @@
     <col min="5" max="5" width="21.33203125" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
     <col min="7" max="7" width="23.6640625" customWidth="1"/>
+    <col min="11" max="11" width="18.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="36">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:11" ht="24">
+      <c r="A1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="J1" s="7" t="s">
+      <c r="I1" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="7" t="s">
-        <v>68</v>
+      <c r="K1" s="4" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="48">
-      <c r="A2" t="s">
+      <c r="A2" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+    </row>
+    <row r="4" spans="1:11" ht="24">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="B3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="24">
-      <c r="D4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="D7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="D8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" t="s">
-        <v>83</v>
-      </c>
-      <c r="G8" t="s">
-        <v>164</v>
-      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="D9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" t="s">
-        <v>81</v>
-      </c>
-      <c r="G9" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="D10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" s="36" t="s">
-        <v>166</v>
-      </c>
-      <c r="G10" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="B12" t="s">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7" t="s">
         <v>37</v>
       </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3646,223 +3927,223 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="25.33203125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="19" style="7" customWidth="1"/>
-    <col min="3" max="3" width="24.33203125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="22.33203125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="48.1640625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="30.83203125" style="7" customWidth="1"/>
-    <col min="7" max="7" width="71" style="7" customWidth="1"/>
-    <col min="8" max="8" width="26.6640625" style="7" customWidth="1"/>
-    <col min="9" max="9" width="31.1640625" style="7" customWidth="1"/>
-    <col min="10" max="10" width="15.6640625" style="7" customWidth="1"/>
-    <col min="11" max="11" width="28.33203125" style="7" customWidth="1"/>
-    <col min="12" max="16384" width="10.83203125" style="7"/>
+    <col min="1" max="1" width="25.33203125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="19" style="4" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="48.1640625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="30.83203125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="71" style="4" customWidth="1"/>
+    <col min="8" max="8" width="26.6640625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="31.1640625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="28.33203125" style="4" customWidth="1"/>
+    <col min="12" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="8" customFormat="1" ht="27" customHeight="1">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:12" s="5" customFormat="1" ht="27" customHeight="1">
+      <c r="A1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="J1" s="7" t="s">
+      <c r="I1" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="L1" s="7"/>
-    </row>
-    <row r="2" spans="1:12" s="8" customFormat="1" ht="15" customHeight="1">
-      <c r="A2"/>
-      <c r="B2" t="s">
+      <c r="K1" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="L1" s="4"/>
+    </row>
+    <row r="2" spans="1:12" s="5" customFormat="1" ht="15" customHeight="1">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2"/>
-      <c r="E2"/>
-      <c r="F2"/>
-      <c r="G2"/>
-      <c r="H2"/>
-      <c r="I2"/>
-      <c r="J2"/>
-      <c r="K2"/>
-      <c r="L2" s="7"/>
-    </row>
-    <row r="3" spans="1:12" s="4" customFormat="1" ht="33" customHeight="1">
-      <c r="A3" s="23"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="E3" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="F3" s="23"/>
-      <c r="G3" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="24" t="s">
-        <v>69</v>
+      <c r="C2" s="24"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="4"/>
+    </row>
+    <row r="3" spans="1:12" s="1" customFormat="1" ht="33" customHeight="1">
+      <c r="A3" s="65"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="66" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="66" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3" s="65"/>
+      <c r="G3" s="66" t="s">
+        <v>88</v>
+      </c>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="66" t="s">
+        <v>67</v>
       </c>
       <c r="L3"/>
     </row>
     <row r="4" spans="1:12" customFormat="1" ht="33" customHeight="1">
-      <c r="A4" s="7"/>
-      <c r="B4" s="24" t="s">
+      <c r="A4" s="24"/>
+      <c r="B4" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
     </row>
     <row r="5" spans="1:12" customFormat="1" ht="33" customHeight="1">
-      <c r="A5" s="23"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
     </row>
     <row r="6" spans="1:12" customFormat="1" ht="33" customHeight="1">
-      <c r="A6" s="23"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-    </row>
-    <row r="7" spans="1:12" s="23" customFormat="1" ht="27" customHeight="1">
-      <c r="B7" s="4"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+    </row>
+    <row r="7" spans="1:12" s="16" customFormat="1" ht="27" customHeight="1">
+      <c r="B7" s="1"/>
       <c r="C7"/>
       <c r="D7"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="1:12" s="9" customFormat="1" ht="17" customHeight="1">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-    </row>
-    <row r="9" spans="1:12" s="23" customFormat="1" ht="27" customHeight="1">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-    </row>
-    <row r="10" spans="1:12" s="23" customFormat="1" ht="27" customHeight="1">
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="G10" s="24"/>
-    </row>
-    <row r="11" spans="1:12" s="23" customFormat="1" ht="27" customHeight="1">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-    </row>
-    <row r="12" spans="1:12" s="9" customFormat="1" ht="27" customHeight="1">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:12" s="6" customFormat="1" ht="17" customHeight="1">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+    </row>
+    <row r="9" spans="1:12" s="16" customFormat="1" ht="27" customHeight="1">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+    </row>
+    <row r="10" spans="1:12" s="16" customFormat="1" ht="27" customHeight="1">
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="G10" s="17"/>
+    </row>
+    <row r="11" spans="1:12" s="16" customFormat="1" ht="27" customHeight="1">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+    </row>
+    <row r="12" spans="1:12" s="6" customFormat="1" ht="27" customHeight="1">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
     </row>
     <row r="13" spans="1:12" ht="27" customHeight="1">
-      <c r="F13" s="25"/>
-    </row>
-    <row r="14" spans="1:12" s="23" customFormat="1" ht="27" customHeight="1">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
+      <c r="F13" s="18"/>
+    </row>
+    <row r="14" spans="1:12" s="16" customFormat="1" ht="27" customHeight="1">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3877,10 +4158,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -3898,89 +4179,115 @@
     <col min="11" max="11" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="8" customFormat="1" ht="27" customHeight="1">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:12" s="5" customFormat="1" ht="27" customHeight="1">
+      <c r="A1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="J1" s="7" t="s">
+      <c r="I1" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="L1" s="7"/>
-    </row>
-    <row r="2" spans="1:12" s="8" customFormat="1" ht="27" customHeight="1">
-      <c r="A2" s="7"/>
-      <c r="B2" s="8" t="s">
+      <c r="K1" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L1" s="4"/>
+    </row>
+    <row r="2" spans="1:12" s="5" customFormat="1" ht="27" customHeight="1">
+      <c r="A2" s="24"/>
+      <c r="B2" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="D3" s="4" t="s">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4" t="s">
-        <v>171</v>
-      </c>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67" t="s">
+        <v>165</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
     </row>
     <row r="4" spans="1:12" ht="68" customHeight="1">
-      <c r="D4" s="4" t="s">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4" t="s">
-        <v>172</v>
-      </c>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67" t="s">
+        <v>166</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
     </row>
     <row r="5" spans="1:12" ht="31" customHeight="1">
-      <c r="D5" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="G5" s="4"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="67" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="B12" t="s">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7" t="s">
         <v>37</v>
       </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/cohesionAndConflict_odkx/app/config/tables/household_census/forms/household_census/household_census.xlsx
+++ b/cohesionAndConflict_odkx/app/config/tables/household_census/forms/household_census/household_census.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="220" windowWidth="27540" windowHeight="16060" tabRatio="617" activeTab="3"/>
+    <workbookView xWindow="2260" yWindow="520" windowWidth="27540" windowHeight="16060" tabRatio="689" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -793,7 +793,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="215">
+  <cellStyleXfs count="273">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -863,6 +863,64 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1179,7 +1237,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="215">
+  <cellStyles count="273">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -1286,6 +1344,35 @@
     <cellStyle name="Followed Hyperlink" xfId="210" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="212" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="246" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="248" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="250" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="252" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="254" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="256" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="258" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="260" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="262" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="264" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="266" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="268" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="270" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="272" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -1392,6 +1479,35 @@
     <cellStyle name="Hyperlink" xfId="209" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="211" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="217" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="219" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="221" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="223" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="225" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="227" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="229" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="231" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="233" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="235" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="237" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="239" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="241" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="243" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="245" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="247" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="249" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="251" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="253" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="255" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="257" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="259" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="261" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="263" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="265" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="267" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="269" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="271" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
     <cellStyle name="Note" xfId="68" builtinId="10"/>
@@ -2286,7 +2402,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -2439,7 +2555,7 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -2543,7 +2659,7 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.33203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -2713,8 +2829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A21" activeCellId="2" sqref="A5:C8 A10:C19 A21:C26"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21:C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -3177,7 +3293,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
@@ -3577,7 +3693,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="24.33203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
